--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #07  J U L I O  2023/CREDITOS     ZAVALETA   JULIO     2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #07  J U L I O  2023/CREDITOS     ZAVALETA   JULIO     2023.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18075" windowHeight="11715" firstSheet="8" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18075" windowHeight="11715" firstSheet="10" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="ENERO   2 0 2 3    " sheetId="1" r:id="rId1"/>
@@ -3926,7 +3926,7 @@
   </sheetPr>
   <dimension ref="A2:Z61"/>
   <sheetViews>
-    <sheetView topLeftCell="F16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
@@ -4939,8 +4939,8 @@
   </sheetPr>
   <dimension ref="A2:Z61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4989,12 +4989,18 @@
       <c r="J3" s="81"/>
     </row>
     <row r="4" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="82"/>
-      <c r="C4" s="152"/>
-      <c r="D4" s="84"/>
+      <c r="B4" s="82">
+        <v>45117</v>
+      </c>
+      <c r="C4" s="152">
+        <v>45122</v>
+      </c>
+      <c r="D4" s="84">
+        <v>49432.5</v>
+      </c>
       <c r="E4" s="85">
         <f>D4</f>
-        <v>0</v>
+        <v>49432.5</v>
       </c>
       <c r="F4" s="86"/>
       <c r="G4" s="82"/>
@@ -5002,32 +5008,44 @@
       <c r="I4" s="88"/>
       <c r="J4" s="20">
         <f>E47+I4</f>
-        <v>0</v>
+        <v>223851</v>
       </c>
     </row>
     <row r="5" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="82"/>
-      <c r="C5" s="152"/>
-      <c r="D5" s="84"/>
+      <c r="B5" s="82">
+        <v>45118</v>
+      </c>
+      <c r="C5" s="152">
+        <v>45122</v>
+      </c>
+      <c r="D5" s="84">
+        <v>49275</v>
+      </c>
       <c r="E5" s="20">
         <f>E4+D5</f>
-        <v>0</v>
+        <v>98707.5</v>
       </c>
       <c r="G5" s="82"/>
       <c r="H5" s="87"/>
       <c r="I5" s="88"/>
       <c r="J5" s="20">
         <f>J4+I5</f>
-        <v>0</v>
+        <v>223851</v>
       </c>
     </row>
     <row r="6" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="82"/>
-      <c r="C6" s="152"/>
-      <c r="D6" s="84"/>
+      <c r="B6" s="82">
+        <v>45119</v>
+      </c>
+      <c r="C6" s="152">
+        <v>45122</v>
+      </c>
+      <c r="D6" s="84">
+        <v>59119.5</v>
+      </c>
       <c r="E6" s="20">
         <f t="shared" ref="E6:E47" si="0">E5+D6</f>
-        <v>0</v>
+        <v>157827</v>
       </c>
       <c r="F6" s="89"/>
       <c r="G6" s="82"/>
@@ -5035,16 +5053,22 @@
       <c r="I6" s="88"/>
       <c r="J6" s="20">
         <f t="shared" ref="J6:J29" si="1">J5+I6</f>
-        <v>0</v>
+        <v>223851</v>
       </c>
     </row>
     <row r="7" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="82"/>
-      <c r="C7" s="152"/>
-      <c r="D7" s="84"/>
+      <c r="B7" s="82">
+        <v>45120</v>
+      </c>
+      <c r="C7" s="152">
+        <v>45122</v>
+      </c>
+      <c r="D7" s="84">
+        <v>66024</v>
+      </c>
       <c r="E7" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>223851</v>
       </c>
       <c r="F7" s="89"/>
       <c r="G7" s="82"/>
@@ -5052,7 +5076,7 @@
       <c r="I7" s="88"/>
       <c r="J7" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>223851</v>
       </c>
     </row>
     <row r="8" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5061,14 +5085,14 @@
       <c r="D8" s="84"/>
       <c r="E8" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>223851</v>
       </c>
       <c r="G8" s="82"/>
       <c r="H8" s="87"/>
       <c r="I8" s="88"/>
       <c r="J8" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>223851</v>
       </c>
     </row>
     <row r="9" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5077,14 +5101,14 @@
       <c r="D9" s="84"/>
       <c r="E9" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>223851</v>
       </c>
       <c r="G9" s="82"/>
       <c r="H9" s="90"/>
       <c r="I9" s="84"/>
       <c r="J9" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>223851</v>
       </c>
     </row>
     <row r="10" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5093,14 +5117,14 @@
       <c r="D10" s="21"/>
       <c r="E10" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>223851</v>
       </c>
       <c r="G10" s="82"/>
       <c r="H10" s="90"/>
       <c r="I10" s="84"/>
       <c r="J10" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>223851</v>
       </c>
     </row>
     <row r="11" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5109,14 +5133,14 @@
       <c r="D11" s="21"/>
       <c r="E11" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>223851</v>
       </c>
       <c r="G11" s="82"/>
       <c r="H11" s="90"/>
       <c r="I11" s="84"/>
       <c r="J11" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>223851</v>
       </c>
     </row>
     <row r="12" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5125,14 +5149,14 @@
       <c r="D12" s="21"/>
       <c r="E12" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>223851</v>
       </c>
       <c r="G12" s="82"/>
       <c r="H12" s="90"/>
       <c r="I12" s="84"/>
       <c r="J12" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>223851</v>
       </c>
     </row>
     <row r="13" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5141,14 +5165,14 @@
       <c r="D13" s="21"/>
       <c r="E13" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>223851</v>
       </c>
       <c r="G13" s="82"/>
       <c r="H13" s="90"/>
       <c r="I13" s="84"/>
       <c r="J13" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>223851</v>
       </c>
     </row>
     <row r="14" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5157,14 +5181,14 @@
       <c r="D14" s="21"/>
       <c r="E14" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>223851</v>
       </c>
       <c r="G14" s="82"/>
       <c r="H14" s="90"/>
       <c r="I14" s="84"/>
       <c r="J14" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>223851</v>
       </c>
     </row>
     <row r="15" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5173,14 +5197,14 @@
       <c r="D15" s="21"/>
       <c r="E15" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>223851</v>
       </c>
       <c r="G15" s="82"/>
       <c r="H15" s="90"/>
       <c r="I15" s="84"/>
       <c r="J15" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>223851</v>
       </c>
     </row>
     <row r="16" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5189,14 +5213,14 @@
       <c r="D16" s="21"/>
       <c r="E16" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>223851</v>
       </c>
       <c r="G16" s="82"/>
       <c r="H16" s="90"/>
       <c r="I16" s="84"/>
       <c r="J16" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>223851</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5205,14 +5229,14 @@
       <c r="D17" s="21"/>
       <c r="E17" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>223851</v>
       </c>
       <c r="G17" s="82"/>
       <c r="H17" s="87"/>
       <c r="I17" s="84"/>
       <c r="J17" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>223851</v>
       </c>
     </row>
     <row r="18" spans="2:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5221,14 +5245,14 @@
       <c r="D18" s="21"/>
       <c r="E18" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>223851</v>
       </c>
       <c r="G18" s="82"/>
       <c r="H18" s="87"/>
       <c r="I18" s="84"/>
       <c r="J18" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>223851</v>
       </c>
     </row>
     <row r="19" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5237,14 +5261,14 @@
       <c r="D19" s="21"/>
       <c r="E19" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>223851</v>
       </c>
       <c r="G19" s="82"/>
       <c r="H19" s="87"/>
       <c r="I19" s="84"/>
       <c r="J19" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>223851</v>
       </c>
     </row>
     <row r="20" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5253,14 +5277,14 @@
       <c r="D20" s="21"/>
       <c r="E20" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>223851</v>
       </c>
       <c r="G20" s="82"/>
       <c r="H20" s="87"/>
       <c r="I20" s="88"/>
       <c r="J20" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>223851</v>
       </c>
     </row>
     <row r="21" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5269,14 +5293,14 @@
       <c r="D21" s="21"/>
       <c r="E21" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>223851</v>
       </c>
       <c r="G21" s="82"/>
       <c r="H21" s="87"/>
       <c r="I21" s="88"/>
       <c r="J21" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>223851</v>
       </c>
     </row>
     <row r="22" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5285,14 +5309,14 @@
       <c r="D22" s="21"/>
       <c r="E22" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>223851</v>
       </c>
       <c r="G22" s="82"/>
       <c r="H22" s="87"/>
       <c r="I22" s="88"/>
       <c r="J22" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>223851</v>
       </c>
     </row>
     <row r="23" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5301,14 +5325,14 @@
       <c r="D23" s="21"/>
       <c r="E23" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>223851</v>
       </c>
       <c r="G23" s="82"/>
       <c r="H23" s="87"/>
       <c r="I23" s="88"/>
       <c r="J23" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>223851</v>
       </c>
     </row>
     <row r="24" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5317,14 +5341,14 @@
       <c r="D24" s="21"/>
       <c r="E24" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>223851</v>
       </c>
       <c r="G24" s="82"/>
       <c r="H24" s="87"/>
       <c r="I24" s="88"/>
       <c r="J24" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>223851</v>
       </c>
     </row>
     <row r="25" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5333,14 +5357,14 @@
       <c r="D25" s="21"/>
       <c r="E25" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>223851</v>
       </c>
       <c r="G25" s="82"/>
       <c r="H25" s="87"/>
       <c r="I25" s="93"/>
       <c r="J25" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>223851</v>
       </c>
     </row>
     <row r="26" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5349,14 +5373,14 @@
       <c r="D26" s="21"/>
       <c r="E26" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>223851</v>
       </c>
       <c r="G26" s="82"/>
       <c r="H26" s="87"/>
       <c r="I26" s="93"/>
       <c r="J26" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>223851</v>
       </c>
     </row>
     <row r="27" spans="2:10" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5365,14 +5389,14 @@
       <c r="D27" s="21"/>
       <c r="E27" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>223851</v>
       </c>
       <c r="G27" s="94"/>
       <c r="H27" s="95"/>
       <c r="I27" s="96"/>
       <c r="J27" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>223851</v>
       </c>
     </row>
     <row r="28" spans="2:10" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -5381,7 +5405,7 @@
       <c r="D28" s="21"/>
       <c r="E28" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>223851</v>
       </c>
       <c r="F28" s="97"/>
       <c r="G28" s="180">
@@ -5395,7 +5419,7 @@
       </c>
       <c r="J28" s="20">
         <f t="shared" si="1"/>
-        <v>-1988652.52</v>
+        <v>-1764801.52</v>
       </c>
     </row>
     <row r="29" spans="2:10" ht="23.25" x14ac:dyDescent="0.25">
@@ -5404,14 +5428,14 @@
       <c r="D29" s="21"/>
       <c r="E29" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>223851</v>
       </c>
       <c r="G29" s="99"/>
       <c r="H29" s="99"/>
       <c r="I29" s="99"/>
       <c r="J29" s="20">
         <f t="shared" si="1"/>
-        <v>-1988652.52</v>
+        <v>-1764801.52</v>
       </c>
     </row>
     <row r="30" spans="2:10" ht="23.25" x14ac:dyDescent="0.25">
@@ -5420,7 +5444,7 @@
       <c r="D30" s="21"/>
       <c r="E30" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>223851</v>
       </c>
       <c r="G30" s="99"/>
       <c r="H30" s="99"/>
@@ -5433,7 +5457,7 @@
       <c r="D31" s="102"/>
       <c r="E31" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>223851</v>
       </c>
       <c r="G31" s="99"/>
       <c r="H31" s="99"/>
@@ -5446,7 +5470,7 @@
       <c r="D32" s="103"/>
       <c r="E32" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>223851</v>
       </c>
     </row>
     <row r="33" spans="2:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5455,7 +5479,7 @@
       <c r="D33" s="103"/>
       <c r="E33" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>223851</v>
       </c>
       <c r="H33" s="161"/>
       <c r="I33" s="161"/>
@@ -5466,7 +5490,7 @@
       <c r="D34" s="103"/>
       <c r="E34" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>223851</v>
       </c>
       <c r="H34" s="161"/>
       <c r="I34" s="161"/>
@@ -5477,7 +5501,7 @@
       <c r="D35" s="84"/>
       <c r="E35" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>223851</v>
       </c>
       <c r="H35" s="161"/>
       <c r="I35" s="161"/>
@@ -5488,7 +5512,7 @@
       <c r="D36" s="84"/>
       <c r="E36" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>223851</v>
       </c>
       <c r="H36" s="161"/>
       <c r="I36" s="161"/>
@@ -5499,7 +5523,7 @@
       <c r="D37" s="84"/>
       <c r="E37" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>223851</v>
       </c>
       <c r="H37" s="161"/>
       <c r="I37" s="161"/>
@@ -5510,7 +5534,7 @@
       <c r="D38" s="84"/>
       <c r="E38" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>223851</v>
       </c>
       <c r="H38" s="161"/>
       <c r="I38" s="161"/>
@@ -5521,7 +5545,7 @@
       <c r="D39" s="84"/>
       <c r="E39" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>223851</v>
       </c>
       <c r="H39" s="161"/>
       <c r="I39" s="161"/>
@@ -5532,7 +5556,7 @@
       <c r="D40" s="84"/>
       <c r="E40" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>223851</v>
       </c>
     </row>
     <row r="41" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -5541,7 +5565,7 @@
       <c r="D41" s="84"/>
       <c r="E41" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>223851</v>
       </c>
     </row>
     <row r="42" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -5550,7 +5574,7 @@
       <c r="D42" s="84"/>
       <c r="E42" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>223851</v>
       </c>
     </row>
     <row r="43" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -5559,7 +5583,7 @@
       <c r="D43" s="84"/>
       <c r="E43" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>223851</v>
       </c>
       <c r="I43" s="126"/>
       <c r="J43" s="125"/>
@@ -5570,7 +5594,7 @@
       <c r="D44" s="84"/>
       <c r="E44" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>223851</v>
       </c>
       <c r="I44" s="126"/>
       <c r="J44" s="125"/>
@@ -5581,7 +5605,7 @@
       <c r="D45" s="84"/>
       <c r="E45" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>223851</v>
       </c>
       <c r="I45" s="126"/>
       <c r="J45" s="125"/>
@@ -5592,7 +5616,7 @@
       <c r="D46" s="84"/>
       <c r="E46" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>223851</v>
       </c>
       <c r="F46"/>
       <c r="I46" s="126"/>
@@ -5604,7 +5628,7 @@
       <c r="D47" s="84"/>
       <c r="E47" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>223851</v>
       </c>
       <c r="F47"/>
       <c r="I47" s="126"/>
@@ -13994,7 +14018,7 @@
   </sheetPr>
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #07  J U L I O  2023/CREDITOS     ZAVALETA   JULIO     2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #07  J U L I O  2023/CREDITOS     ZAVALETA   JULIO     2023.xlsx
@@ -275,7 +275,7 @@
     <numFmt numFmtId="165" formatCode="[$-C0A]d\-mmm\-yy;@"/>
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="38" x14ac:knownFonts="1">
+  <fonts count="40" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -574,6 +574,22 @@
       <b/>
       <sz val="12"/>
       <color theme="5" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFCC6600"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFCC6600"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1032,7 +1048,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="222">
+  <cellXfs count="228">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1513,6 +1529,18 @@
     <xf numFmtId="164" fontId="29" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="38" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="39" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="39" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="38" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="39" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="39" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -1522,6 +1550,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFCC6600"/>
       <color rgb="FF00FFFF"/>
       <color rgb="FF0000FF"/>
       <color rgb="FFCCFFCC"/>
@@ -1531,7 +1560,6 @@
       <color rgb="FFCC99FF"/>
       <color rgb="FF99FF99"/>
       <color rgb="FF3399FF"/>
-      <color rgb="FFCC6600"/>
     </mruColors>
   </colors>
   <extLst>
@@ -4939,8 +4967,8 @@
   </sheetPr>
   <dimension ref="A2:Z61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5008,7 +5036,7 @@
       <c r="I4" s="88"/>
       <c r="J4" s="20">
         <f>E47+I4</f>
-        <v>223851</v>
+        <v>745203.5</v>
       </c>
     </row>
     <row r="5" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5030,7 +5058,7 @@
       <c r="I5" s="88"/>
       <c r="J5" s="20">
         <f>J4+I5</f>
-        <v>223851</v>
+        <v>745203.5</v>
       </c>
     </row>
     <row r="6" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5053,7 +5081,7 @@
       <c r="I6" s="88"/>
       <c r="J6" s="20">
         <f t="shared" ref="J6:J29" si="1">J5+I6</f>
-        <v>223851</v>
+        <v>745203.5</v>
       </c>
     </row>
     <row r="7" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5076,103 +5104,139 @@
       <c r="I7" s="88"/>
       <c r="J7" s="20">
         <f t="shared" si="1"/>
-        <v>223851</v>
+        <v>745203.5</v>
       </c>
     </row>
     <row r="8" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="82"/>
-      <c r="C8" s="152"/>
-      <c r="D8" s="84"/>
+      <c r="B8" s="222">
+        <v>45121</v>
+      </c>
+      <c r="C8" s="223">
+        <v>45128</v>
+      </c>
+      <c r="D8" s="224">
+        <v>92824</v>
+      </c>
       <c r="E8" s="20">
         <f t="shared" si="0"/>
-        <v>223851</v>
+        <v>316675</v>
       </c>
       <c r="G8" s="82"/>
       <c r="H8" s="87"/>
       <c r="I8" s="88"/>
       <c r="J8" s="20">
         <f t="shared" si="1"/>
-        <v>223851</v>
+        <v>745203.5</v>
       </c>
     </row>
     <row r="9" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="82"/>
-      <c r="C9" s="152"/>
-      <c r="D9" s="84"/>
+      <c r="B9" s="222">
+        <v>45122</v>
+      </c>
+      <c r="C9" s="223">
+        <v>45128</v>
+      </c>
+      <c r="D9" s="224">
+        <v>59255</v>
+      </c>
       <c r="E9" s="20">
         <f t="shared" si="0"/>
-        <v>223851</v>
+        <v>375930</v>
       </c>
       <c r="G9" s="82"/>
       <c r="H9" s="90"/>
       <c r="I9" s="84"/>
       <c r="J9" s="20">
         <f t="shared" si="1"/>
-        <v>223851</v>
+        <v>745203.5</v>
       </c>
     </row>
     <row r="10" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="91"/>
-      <c r="C10" s="178"/>
-      <c r="D10" s="21"/>
+      <c r="B10" s="225">
+        <v>45123</v>
+      </c>
+      <c r="C10" s="226">
+        <v>45128</v>
+      </c>
+      <c r="D10" s="227">
+        <v>53178</v>
+      </c>
       <c r="E10" s="20">
         <f t="shared" si="0"/>
-        <v>223851</v>
+        <v>429108</v>
       </c>
       <c r="G10" s="82"/>
       <c r="H10" s="90"/>
       <c r="I10" s="84"/>
       <c r="J10" s="20">
         <f t="shared" si="1"/>
-        <v>223851</v>
+        <v>745203.5</v>
       </c>
     </row>
     <row r="11" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="91"/>
-      <c r="C11" s="178"/>
-      <c r="D11" s="21"/>
+      <c r="B11" s="225">
+        <v>45124</v>
+      </c>
+      <c r="C11" s="226">
+        <v>45128</v>
+      </c>
+      <c r="D11" s="227">
+        <v>95440.5</v>
+      </c>
       <c r="E11" s="20">
         <f t="shared" si="0"/>
-        <v>223851</v>
+        <v>524548.5</v>
       </c>
       <c r="G11" s="82"/>
       <c r="H11" s="90"/>
       <c r="I11" s="84"/>
       <c r="J11" s="20">
         <f t="shared" si="1"/>
-        <v>223851</v>
+        <v>745203.5</v>
       </c>
     </row>
     <row r="12" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="91"/>
-      <c r="C12" s="178"/>
-      <c r="D12" s="21"/>
+      <c r="B12" s="225">
+        <v>45125</v>
+      </c>
+      <c r="C12" s="226">
+        <v>45128</v>
+      </c>
+      <c r="D12" s="227">
+        <v>93028</v>
+      </c>
       <c r="E12" s="20">
         <f t="shared" si="0"/>
-        <v>223851</v>
+        <v>617576.5</v>
       </c>
       <c r="G12" s="82"/>
       <c r="H12" s="90"/>
       <c r="I12" s="84"/>
       <c r="J12" s="20">
         <f t="shared" si="1"/>
-        <v>223851</v>
+        <v>745203.5</v>
       </c>
     </row>
     <row r="13" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="91"/>
-      <c r="C13" s="178"/>
-      <c r="D13" s="21"/>
+      <c r="B13" s="225">
+        <v>45126</v>
+      </c>
+      <c r="C13" s="226">
+        <v>45128</v>
+      </c>
+      <c r="D13" s="227">
+        <v>127627</v>
+      </c>
       <c r="E13" s="20">
         <f t="shared" si="0"/>
-        <v>223851</v>
+        <v>745203.5</v>
       </c>
       <c r="G13" s="82"/>
       <c r="H13" s="90"/>
       <c r="I13" s="84"/>
       <c r="J13" s="20">
         <f t="shared" si="1"/>
-        <v>223851</v>
+        <v>745203.5</v>
       </c>
     </row>
     <row r="14" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5181,14 +5245,14 @@
       <c r="D14" s="21"/>
       <c r="E14" s="20">
         <f t="shared" si="0"/>
-        <v>223851</v>
+        <v>745203.5</v>
       </c>
       <c r="G14" s="82"/>
       <c r="H14" s="90"/>
       <c r="I14" s="84"/>
       <c r="J14" s="20">
         <f t="shared" si="1"/>
-        <v>223851</v>
+        <v>745203.5</v>
       </c>
     </row>
     <row r="15" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5197,14 +5261,14 @@
       <c r="D15" s="21"/>
       <c r="E15" s="20">
         <f t="shared" si="0"/>
-        <v>223851</v>
+        <v>745203.5</v>
       </c>
       <c r="G15" s="82"/>
       <c r="H15" s="90"/>
       <c r="I15" s="84"/>
       <c r="J15" s="20">
         <f t="shared" si="1"/>
-        <v>223851</v>
+        <v>745203.5</v>
       </c>
     </row>
     <row r="16" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5213,14 +5277,14 @@
       <c r="D16" s="21"/>
       <c r="E16" s="20">
         <f t="shared" si="0"/>
-        <v>223851</v>
+        <v>745203.5</v>
       </c>
       <c r="G16" s="82"/>
       <c r="H16" s="90"/>
       <c r="I16" s="84"/>
       <c r="J16" s="20">
         <f t="shared" si="1"/>
-        <v>223851</v>
+        <v>745203.5</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5229,14 +5293,14 @@
       <c r="D17" s="21"/>
       <c r="E17" s="20">
         <f t="shared" si="0"/>
-        <v>223851</v>
+        <v>745203.5</v>
       </c>
       <c r="G17" s="82"/>
       <c r="H17" s="87"/>
       <c r="I17" s="84"/>
       <c r="J17" s="20">
         <f t="shared" si="1"/>
-        <v>223851</v>
+        <v>745203.5</v>
       </c>
     </row>
     <row r="18" spans="2:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5245,14 +5309,14 @@
       <c r="D18" s="21"/>
       <c r="E18" s="20">
         <f t="shared" si="0"/>
-        <v>223851</v>
+        <v>745203.5</v>
       </c>
       <c r="G18" s="82"/>
       <c r="H18" s="87"/>
       <c r="I18" s="84"/>
       <c r="J18" s="20">
         <f t="shared" si="1"/>
-        <v>223851</v>
+        <v>745203.5</v>
       </c>
     </row>
     <row r="19" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5261,14 +5325,14 @@
       <c r="D19" s="21"/>
       <c r="E19" s="20">
         <f t="shared" si="0"/>
-        <v>223851</v>
+        <v>745203.5</v>
       </c>
       <c r="G19" s="82"/>
       <c r="H19" s="87"/>
       <c r="I19" s="84"/>
       <c r="J19" s="20">
         <f t="shared" si="1"/>
-        <v>223851</v>
+        <v>745203.5</v>
       </c>
     </row>
     <row r="20" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5277,14 +5341,14 @@
       <c r="D20" s="21"/>
       <c r="E20" s="20">
         <f t="shared" si="0"/>
-        <v>223851</v>
+        <v>745203.5</v>
       </c>
       <c r="G20" s="82"/>
       <c r="H20" s="87"/>
       <c r="I20" s="88"/>
       <c r="J20" s="20">
         <f t="shared" si="1"/>
-        <v>223851</v>
+        <v>745203.5</v>
       </c>
     </row>
     <row r="21" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5293,14 +5357,14 @@
       <c r="D21" s="21"/>
       <c r="E21" s="20">
         <f t="shared" si="0"/>
-        <v>223851</v>
+        <v>745203.5</v>
       </c>
       <c r="G21" s="82"/>
       <c r="H21" s="87"/>
       <c r="I21" s="88"/>
       <c r="J21" s="20">
         <f t="shared" si="1"/>
-        <v>223851</v>
+        <v>745203.5</v>
       </c>
     </row>
     <row r="22" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5309,14 +5373,14 @@
       <c r="D22" s="21"/>
       <c r="E22" s="20">
         <f t="shared" si="0"/>
-        <v>223851</v>
+        <v>745203.5</v>
       </c>
       <c r="G22" s="82"/>
       <c r="H22" s="87"/>
       <c r="I22" s="88"/>
       <c r="J22" s="20">
         <f t="shared" si="1"/>
-        <v>223851</v>
+        <v>745203.5</v>
       </c>
     </row>
     <row r="23" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5325,14 +5389,14 @@
       <c r="D23" s="21"/>
       <c r="E23" s="20">
         <f t="shared" si="0"/>
-        <v>223851</v>
+        <v>745203.5</v>
       </c>
       <c r="G23" s="82"/>
       <c r="H23" s="87"/>
       <c r="I23" s="88"/>
       <c r="J23" s="20">
         <f t="shared" si="1"/>
-        <v>223851</v>
+        <v>745203.5</v>
       </c>
     </row>
     <row r="24" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5341,14 +5405,14 @@
       <c r="D24" s="21"/>
       <c r="E24" s="20">
         <f t="shared" si="0"/>
-        <v>223851</v>
+        <v>745203.5</v>
       </c>
       <c r="G24" s="82"/>
       <c r="H24" s="87"/>
       <c r="I24" s="88"/>
       <c r="J24" s="20">
         <f t="shared" si="1"/>
-        <v>223851</v>
+        <v>745203.5</v>
       </c>
     </row>
     <row r="25" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5357,14 +5421,14 @@
       <c r="D25" s="21"/>
       <c r="E25" s="20">
         <f t="shared" si="0"/>
-        <v>223851</v>
+        <v>745203.5</v>
       </c>
       <c r="G25" s="82"/>
       <c r="H25" s="87"/>
       <c r="I25" s="93"/>
       <c r="J25" s="20">
         <f t="shared" si="1"/>
-        <v>223851</v>
+        <v>745203.5</v>
       </c>
     </row>
     <row r="26" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5373,14 +5437,14 @@
       <c r="D26" s="21"/>
       <c r="E26" s="20">
         <f t="shared" si="0"/>
-        <v>223851</v>
+        <v>745203.5</v>
       </c>
       <c r="G26" s="82"/>
       <c r="H26" s="87"/>
       <c r="I26" s="93"/>
       <c r="J26" s="20">
         <f t="shared" si="1"/>
-        <v>223851</v>
+        <v>745203.5</v>
       </c>
     </row>
     <row r="27" spans="2:10" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5389,14 +5453,14 @@
       <c r="D27" s="21"/>
       <c r="E27" s="20">
         <f t="shared" si="0"/>
-        <v>223851</v>
+        <v>745203.5</v>
       </c>
       <c r="G27" s="94"/>
       <c r="H27" s="95"/>
       <c r="I27" s="96"/>
       <c r="J27" s="20">
         <f t="shared" si="1"/>
-        <v>223851</v>
+        <v>745203.5</v>
       </c>
     </row>
     <row r="28" spans="2:10" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -5405,7 +5469,7 @@
       <c r="D28" s="21"/>
       <c r="E28" s="20">
         <f t="shared" si="0"/>
-        <v>223851</v>
+        <v>745203.5</v>
       </c>
       <c r="F28" s="97"/>
       <c r="G28" s="180">
@@ -5419,7 +5483,7 @@
       </c>
       <c r="J28" s="20">
         <f t="shared" si="1"/>
-        <v>-1764801.52</v>
+        <v>-1243449.02</v>
       </c>
     </row>
     <row r="29" spans="2:10" ht="23.25" x14ac:dyDescent="0.25">
@@ -5428,14 +5492,14 @@
       <c r="D29" s="21"/>
       <c r="E29" s="20">
         <f t="shared" si="0"/>
-        <v>223851</v>
+        <v>745203.5</v>
       </c>
       <c r="G29" s="99"/>
       <c r="H29" s="99"/>
       <c r="I29" s="99"/>
       <c r="J29" s="20">
         <f t="shared" si="1"/>
-        <v>-1764801.52</v>
+        <v>-1243449.02</v>
       </c>
     </row>
     <row r="30" spans="2:10" ht="23.25" x14ac:dyDescent="0.25">
@@ -5444,7 +5508,7 @@
       <c r="D30" s="21"/>
       <c r="E30" s="20">
         <f t="shared" si="0"/>
-        <v>223851</v>
+        <v>745203.5</v>
       </c>
       <c r="G30" s="99"/>
       <c r="H30" s="99"/>
@@ -5457,7 +5521,7 @@
       <c r="D31" s="102"/>
       <c r="E31" s="20">
         <f t="shared" si="0"/>
-        <v>223851</v>
+        <v>745203.5</v>
       </c>
       <c r="G31" s="99"/>
       <c r="H31" s="99"/>
@@ -5470,7 +5534,7 @@
       <c r="D32" s="103"/>
       <c r="E32" s="20">
         <f t="shared" si="0"/>
-        <v>223851</v>
+        <v>745203.5</v>
       </c>
     </row>
     <row r="33" spans="2:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5479,7 +5543,7 @@
       <c r="D33" s="103"/>
       <c r="E33" s="20">
         <f t="shared" si="0"/>
-        <v>223851</v>
+        <v>745203.5</v>
       </c>
       <c r="H33" s="161"/>
       <c r="I33" s="161"/>
@@ -5490,7 +5554,7 @@
       <c r="D34" s="103"/>
       <c r="E34" s="20">
         <f t="shared" si="0"/>
-        <v>223851</v>
+        <v>745203.5</v>
       </c>
       <c r="H34" s="161"/>
       <c r="I34" s="161"/>
@@ -5501,7 +5565,7 @@
       <c r="D35" s="84"/>
       <c r="E35" s="20">
         <f t="shared" si="0"/>
-        <v>223851</v>
+        <v>745203.5</v>
       </c>
       <c r="H35" s="161"/>
       <c r="I35" s="161"/>
@@ -5512,7 +5576,7 @@
       <c r="D36" s="84"/>
       <c r="E36" s="20">
         <f t="shared" si="0"/>
-        <v>223851</v>
+        <v>745203.5</v>
       </c>
       <c r="H36" s="161"/>
       <c r="I36" s="161"/>
@@ -5523,7 +5587,7 @@
       <c r="D37" s="84"/>
       <c r="E37" s="20">
         <f t="shared" si="0"/>
-        <v>223851</v>
+        <v>745203.5</v>
       </c>
       <c r="H37" s="161"/>
       <c r="I37" s="161"/>
@@ -5534,7 +5598,7 @@
       <c r="D38" s="84"/>
       <c r="E38" s="20">
         <f t="shared" si="0"/>
-        <v>223851</v>
+        <v>745203.5</v>
       </c>
       <c r="H38" s="161"/>
       <c r="I38" s="161"/>
@@ -5545,7 +5609,7 @@
       <c r="D39" s="84"/>
       <c r="E39" s="20">
         <f t="shared" si="0"/>
-        <v>223851</v>
+        <v>745203.5</v>
       </c>
       <c r="H39" s="161"/>
       <c r="I39" s="161"/>
@@ -5556,7 +5620,7 @@
       <c r="D40" s="84"/>
       <c r="E40" s="20">
         <f t="shared" si="0"/>
-        <v>223851</v>
+        <v>745203.5</v>
       </c>
     </row>
     <row r="41" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -5565,7 +5629,7 @@
       <c r="D41" s="84"/>
       <c r="E41" s="20">
         <f t="shared" si="0"/>
-        <v>223851</v>
+        <v>745203.5</v>
       </c>
     </row>
     <row r="42" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -5574,7 +5638,7 @@
       <c r="D42" s="84"/>
       <c r="E42" s="20">
         <f t="shared" si="0"/>
-        <v>223851</v>
+        <v>745203.5</v>
       </c>
     </row>
     <row r="43" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -5583,7 +5647,7 @@
       <c r="D43" s="84"/>
       <c r="E43" s="20">
         <f t="shared" si="0"/>
-        <v>223851</v>
+        <v>745203.5</v>
       </c>
       <c r="I43" s="126"/>
       <c r="J43" s="125"/>
@@ -5594,7 +5658,7 @@
       <c r="D44" s="84"/>
       <c r="E44" s="20">
         <f t="shared" si="0"/>
-        <v>223851</v>
+        <v>745203.5</v>
       </c>
       <c r="I44" s="126"/>
       <c r="J44" s="125"/>
@@ -5605,7 +5669,7 @@
       <c r="D45" s="84"/>
       <c r="E45" s="20">
         <f t="shared" si="0"/>
-        <v>223851</v>
+        <v>745203.5</v>
       </c>
       <c r="I45" s="126"/>
       <c r="J45" s="125"/>
@@ -5616,7 +5680,7 @@
       <c r="D46" s="84"/>
       <c r="E46" s="20">
         <f t="shared" si="0"/>
-        <v>223851</v>
+        <v>745203.5</v>
       </c>
       <c r="F46"/>
       <c r="I46" s="126"/>
@@ -5628,7 +5692,7 @@
       <c r="D47" s="84"/>
       <c r="E47" s="20">
         <f t="shared" si="0"/>
-        <v>223851</v>
+        <v>745203.5</v>
       </c>
       <c r="F47"/>
       <c r="I47" s="126"/>
@@ -5731,7 +5795,8 @@
     <mergeCell ref="B2:J2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #07  J U L I O  2023/CREDITOS     ZAVALETA   JULIO     2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #07  J U L I O  2023/CREDITOS     ZAVALETA   JULIO     2023.xlsx
@@ -1466,6 +1466,18 @@
     </xf>
     <xf numFmtId="164" fontId="36" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="37" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="38" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="39" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="39" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="38" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="39" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="39" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1529,18 +1541,6 @@
     <xf numFmtId="164" fontId="29" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="38" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="39" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="39" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="38" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="39" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="39" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -2982,25 +2982,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="201" t="s">
+      <c r="B1" s="207" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="202"/>
-      <c r="D1" s="202"/>
-      <c r="E1" s="202"/>
-      <c r="F1" s="202"/>
-      <c r="G1" s="203"/>
+      <c r="C1" s="208"/>
+      <c r="D1" s="208"/>
+      <c r="E1" s="208"/>
+      <c r="F1" s="208"/>
+      <c r="G1" s="209"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="204" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="204"/>
-      <c r="D2" s="204"/>
-      <c r="E2" s="204"/>
-      <c r="F2" s="204"/>
+      <c r="B2" s="210" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="210"/>
+      <c r="D2" s="210"/>
+      <c r="E2" s="210"/>
+      <c r="F2" s="210"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -3767,12 +3767,12 @@
       <c r="B37" s="37"/>
       <c r="C37" s="38"/>
       <c r="D37" s="39"/>
-      <c r="E37" s="205">
+      <c r="E37" s="211">
         <f>E33-G33</f>
         <v>0</v>
       </c>
-      <c r="F37" s="206"/>
-      <c r="G37" s="207"/>
+      <c r="F37" s="212"/>
+      <c r="G37" s="213"/>
       <c r="I37" s="2"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -3788,11 +3788,11 @@
       <c r="B39" s="37"/>
       <c r="C39" s="38"/>
       <c r="D39" s="39"/>
-      <c r="E39" s="208" t="s">
+      <c r="E39" s="214" t="s">
         <v>10</v>
       </c>
-      <c r="F39" s="208"/>
-      <c r="G39" s="208"/>
+      <c r="F39" s="214"/>
+      <c r="G39" s="214"/>
       <c r="I39" s="2"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -3972,17 +3972,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:26" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="209" t="s">
+      <c r="B2" s="215" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="209"/>
-      <c r="D2" s="209"/>
-      <c r="E2" s="209"/>
-      <c r="F2" s="209"/>
-      <c r="G2" s="209"/>
-      <c r="H2" s="209"/>
-      <c r="I2" s="209"/>
-      <c r="J2" s="209"/>
+      <c r="C2" s="215"/>
+      <c r="D2" s="215"/>
+      <c r="E2" s="215"/>
+      <c r="F2" s="215"/>
+      <c r="G2" s="215"/>
+      <c r="H2" s="215"/>
+      <c r="I2" s="215"/>
+      <c r="J2" s="215"/>
       <c r="Z2" s="153"/>
     </row>
     <row r="3" spans="2:26" ht="33.75" thickBot="1" x14ac:dyDescent="0.4">
@@ -4968,7 +4968,7 @@
   <dimension ref="A2:Z61"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4985,17 +4985,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:26" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="209" t="s">
+      <c r="B2" s="215" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="209"/>
-      <c r="D2" s="209"/>
-      <c r="E2" s="209"/>
-      <c r="F2" s="209"/>
-      <c r="G2" s="209"/>
-      <c r="H2" s="209"/>
-      <c r="I2" s="209"/>
-      <c r="J2" s="209"/>
+      <c r="C2" s="215"/>
+      <c r="D2" s="215"/>
+      <c r="E2" s="215"/>
+      <c r="F2" s="215"/>
+      <c r="G2" s="215"/>
+      <c r="H2" s="215"/>
+      <c r="I2" s="215"/>
+      <c r="J2" s="215"/>
       <c r="Z2" s="153"/>
     </row>
     <row r="3" spans="2:26" ht="33.75" thickBot="1" x14ac:dyDescent="0.4">
@@ -5036,7 +5036,7 @@
       <c r="I4" s="88"/>
       <c r="J4" s="20">
         <f>E47+I4</f>
-        <v>745203.5</v>
+        <v>1059910</v>
       </c>
     </row>
     <row r="5" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5058,7 +5058,7 @@
       <c r="I5" s="88"/>
       <c r="J5" s="20">
         <f>J4+I5</f>
-        <v>745203.5</v>
+        <v>1059910</v>
       </c>
     </row>
     <row r="6" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5081,7 +5081,7 @@
       <c r="I6" s="88"/>
       <c r="J6" s="20">
         <f t="shared" ref="J6:J29" si="1">J5+I6</f>
-        <v>745203.5</v>
+        <v>1059910</v>
       </c>
     </row>
     <row r="7" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5104,17 +5104,17 @@
       <c r="I7" s="88"/>
       <c r="J7" s="20">
         <f t="shared" si="1"/>
-        <v>745203.5</v>
+        <v>1059910</v>
       </c>
     </row>
     <row r="8" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="222">
+      <c r="B8" s="201">
         <v>45121</v>
       </c>
-      <c r="C8" s="223">
+      <c r="C8" s="202">
         <v>45128</v>
       </c>
-      <c r="D8" s="224">
+      <c r="D8" s="203">
         <v>92824</v>
       </c>
       <c r="E8" s="20">
@@ -5126,17 +5126,17 @@
       <c r="I8" s="88"/>
       <c r="J8" s="20">
         <f t="shared" si="1"/>
-        <v>745203.5</v>
+        <v>1059910</v>
       </c>
     </row>
     <row r="9" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="222">
+      <c r="B9" s="201">
         <v>45122</v>
       </c>
-      <c r="C9" s="223">
+      <c r="C9" s="202">
         <v>45128</v>
       </c>
-      <c r="D9" s="224">
+      <c r="D9" s="203">
         <v>59255</v>
       </c>
       <c r="E9" s="20">
@@ -5148,17 +5148,17 @@
       <c r="I9" s="84"/>
       <c r="J9" s="20">
         <f t="shared" si="1"/>
-        <v>745203.5</v>
+        <v>1059910</v>
       </c>
     </row>
     <row r="10" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="225">
+      <c r="B10" s="204">
         <v>45123</v>
       </c>
-      <c r="C10" s="226">
+      <c r="C10" s="205">
         <v>45128</v>
       </c>
-      <c r="D10" s="227">
+      <c r="D10" s="206">
         <v>53178</v>
       </c>
       <c r="E10" s="20">
@@ -5170,17 +5170,17 @@
       <c r="I10" s="84"/>
       <c r="J10" s="20">
         <f t="shared" si="1"/>
-        <v>745203.5</v>
+        <v>1059910</v>
       </c>
     </row>
     <row r="11" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="225">
+      <c r="B11" s="204">
         <v>45124</v>
       </c>
-      <c r="C11" s="226">
+      <c r="C11" s="205">
         <v>45128</v>
       </c>
-      <c r="D11" s="227">
+      <c r="D11" s="206">
         <v>95440.5</v>
       </c>
       <c r="E11" s="20">
@@ -5192,17 +5192,17 @@
       <c r="I11" s="84"/>
       <c r="J11" s="20">
         <f t="shared" si="1"/>
-        <v>745203.5</v>
+        <v>1059910</v>
       </c>
     </row>
     <row r="12" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="225">
+      <c r="B12" s="204">
         <v>45125</v>
       </c>
-      <c r="C12" s="226">
+      <c r="C12" s="205">
         <v>45128</v>
       </c>
-      <c r="D12" s="227">
+      <c r="D12" s="206">
         <v>93028</v>
       </c>
       <c r="E12" s="20">
@@ -5214,17 +5214,17 @@
       <c r="I12" s="84"/>
       <c r="J12" s="20">
         <f t="shared" si="1"/>
-        <v>745203.5</v>
+        <v>1059910</v>
       </c>
     </row>
     <row r="13" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="225">
+      <c r="B13" s="204">
         <v>45126</v>
       </c>
-      <c r="C13" s="226">
+      <c r="C13" s="205">
         <v>45128</v>
       </c>
-      <c r="D13" s="227">
+      <c r="D13" s="206">
         <v>127627</v>
       </c>
       <c r="E13" s="20">
@@ -5236,71 +5236,95 @@
       <c r="I13" s="84"/>
       <c r="J13" s="20">
         <f t="shared" si="1"/>
-        <v>745203.5</v>
+        <v>1059910</v>
       </c>
     </row>
     <row r="14" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="91"/>
-      <c r="C14" s="178"/>
-      <c r="D14" s="21"/>
+      <c r="B14" s="91">
+        <v>45130</v>
+      </c>
+      <c r="C14" s="178">
+        <v>45135</v>
+      </c>
+      <c r="D14" s="21">
+        <v>46629</v>
+      </c>
       <c r="E14" s="20">
         <f t="shared" si="0"/>
-        <v>745203.5</v>
+        <v>791832.5</v>
       </c>
       <c r="G14" s="82"/>
       <c r="H14" s="90"/>
       <c r="I14" s="84"/>
       <c r="J14" s="20">
         <f t="shared" si="1"/>
-        <v>745203.5</v>
+        <v>1059910</v>
       </c>
     </row>
     <row r="15" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="91"/>
-      <c r="C15" s="178"/>
-      <c r="D15" s="21"/>
+      <c r="B15" s="91">
+        <v>45131</v>
+      </c>
+      <c r="C15" s="178">
+        <v>45135</v>
+      </c>
+      <c r="D15" s="21">
+        <v>58763.5</v>
+      </c>
       <c r="E15" s="20">
         <f t="shared" si="0"/>
-        <v>745203.5</v>
+        <v>850596</v>
       </c>
       <c r="G15" s="82"/>
       <c r="H15" s="90"/>
       <c r="I15" s="84"/>
       <c r="J15" s="20">
         <f t="shared" si="1"/>
-        <v>745203.5</v>
+        <v>1059910</v>
       </c>
     </row>
     <row r="16" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="91"/>
-      <c r="C16" s="178"/>
-      <c r="D16" s="21"/>
+      <c r="B16" s="91">
+        <v>45132</v>
+      </c>
+      <c r="C16" s="178">
+        <v>45135</v>
+      </c>
+      <c r="D16" s="21">
+        <v>87594</v>
+      </c>
       <c r="E16" s="20">
         <f t="shared" si="0"/>
-        <v>745203.5</v>
+        <v>938190</v>
       </c>
       <c r="G16" s="82"/>
       <c r="H16" s="90"/>
       <c r="I16" s="84"/>
       <c r="J16" s="20">
         <f t="shared" si="1"/>
-        <v>745203.5</v>
+        <v>1059910</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="91"/>
-      <c r="C17" s="178"/>
-      <c r="D17" s="21"/>
+      <c r="B17" s="91">
+        <v>45133</v>
+      </c>
+      <c r="C17" s="178">
+        <v>45135</v>
+      </c>
+      <c r="D17" s="21">
+        <v>121720</v>
+      </c>
       <c r="E17" s="20">
         <f t="shared" si="0"/>
-        <v>745203.5</v>
+        <v>1059910</v>
       </c>
       <c r="G17" s="82"/>
       <c r="H17" s="87"/>
       <c r="I17" s="84"/>
       <c r="J17" s="20">
         <f t="shared" si="1"/>
-        <v>745203.5</v>
+        <v>1059910</v>
       </c>
     </row>
     <row r="18" spans="2:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5309,14 +5333,14 @@
       <c r="D18" s="21"/>
       <c r="E18" s="20">
         <f t="shared" si="0"/>
-        <v>745203.5</v>
+        <v>1059910</v>
       </c>
       <c r="G18" s="82"/>
       <c r="H18" s="87"/>
       <c r="I18" s="84"/>
       <c r="J18" s="20">
         <f t="shared" si="1"/>
-        <v>745203.5</v>
+        <v>1059910</v>
       </c>
     </row>
     <row r="19" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5325,14 +5349,14 @@
       <c r="D19" s="21"/>
       <c r="E19" s="20">
         <f t="shared" si="0"/>
-        <v>745203.5</v>
+        <v>1059910</v>
       </c>
       <c r="G19" s="82"/>
       <c r="H19" s="87"/>
       <c r="I19" s="84"/>
       <c r="J19" s="20">
         <f t="shared" si="1"/>
-        <v>745203.5</v>
+        <v>1059910</v>
       </c>
     </row>
     <row r="20" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5341,14 +5365,14 @@
       <c r="D20" s="21"/>
       <c r="E20" s="20">
         <f t="shared" si="0"/>
-        <v>745203.5</v>
+        <v>1059910</v>
       </c>
       <c r="G20" s="82"/>
       <c r="H20" s="87"/>
       <c r="I20" s="88"/>
       <c r="J20" s="20">
         <f t="shared" si="1"/>
-        <v>745203.5</v>
+        <v>1059910</v>
       </c>
     </row>
     <row r="21" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5357,14 +5381,14 @@
       <c r="D21" s="21"/>
       <c r="E21" s="20">
         <f t="shared" si="0"/>
-        <v>745203.5</v>
+        <v>1059910</v>
       </c>
       <c r="G21" s="82"/>
       <c r="H21" s="87"/>
       <c r="I21" s="88"/>
       <c r="J21" s="20">
         <f t="shared" si="1"/>
-        <v>745203.5</v>
+        <v>1059910</v>
       </c>
     </row>
     <row r="22" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5373,14 +5397,14 @@
       <c r="D22" s="21"/>
       <c r="E22" s="20">
         <f t="shared" si="0"/>
-        <v>745203.5</v>
+        <v>1059910</v>
       </c>
       <c r="G22" s="82"/>
       <c r="H22" s="87"/>
       <c r="I22" s="88"/>
       <c r="J22" s="20">
         <f t="shared" si="1"/>
-        <v>745203.5</v>
+        <v>1059910</v>
       </c>
     </row>
     <row r="23" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5389,14 +5413,14 @@
       <c r="D23" s="21"/>
       <c r="E23" s="20">
         <f t="shared" si="0"/>
-        <v>745203.5</v>
+        <v>1059910</v>
       </c>
       <c r="G23" s="82"/>
       <c r="H23" s="87"/>
       <c r="I23" s="88"/>
       <c r="J23" s="20">
         <f t="shared" si="1"/>
-        <v>745203.5</v>
+        <v>1059910</v>
       </c>
     </row>
     <row r="24" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5405,14 +5429,14 @@
       <c r="D24" s="21"/>
       <c r="E24" s="20">
         <f t="shared" si="0"/>
-        <v>745203.5</v>
+        <v>1059910</v>
       </c>
       <c r="G24" s="82"/>
       <c r="H24" s="87"/>
       <c r="I24" s="88"/>
       <c r="J24" s="20">
         <f t="shared" si="1"/>
-        <v>745203.5</v>
+        <v>1059910</v>
       </c>
     </row>
     <row r="25" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5421,14 +5445,14 @@
       <c r="D25" s="21"/>
       <c r="E25" s="20">
         <f t="shared" si="0"/>
-        <v>745203.5</v>
+        <v>1059910</v>
       </c>
       <c r="G25" s="82"/>
       <c r="H25" s="87"/>
       <c r="I25" s="93"/>
       <c r="J25" s="20">
         <f t="shared" si="1"/>
-        <v>745203.5</v>
+        <v>1059910</v>
       </c>
     </row>
     <row r="26" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5437,14 +5461,14 @@
       <c r="D26" s="21"/>
       <c r="E26" s="20">
         <f t="shared" si="0"/>
-        <v>745203.5</v>
+        <v>1059910</v>
       </c>
       <c r="G26" s="82"/>
       <c r="H26" s="87"/>
       <c r="I26" s="93"/>
       <c r="J26" s="20">
         <f t="shared" si="1"/>
-        <v>745203.5</v>
+        <v>1059910</v>
       </c>
     </row>
     <row r="27" spans="2:10" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5453,14 +5477,14 @@
       <c r="D27" s="21"/>
       <c r="E27" s="20">
         <f t="shared" si="0"/>
-        <v>745203.5</v>
+        <v>1059910</v>
       </c>
       <c r="G27" s="94"/>
       <c r="H27" s="95"/>
       <c r="I27" s="96"/>
       <c r="J27" s="20">
         <f t="shared" si="1"/>
-        <v>745203.5</v>
+        <v>1059910</v>
       </c>
     </row>
     <row r="28" spans="2:10" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -5469,7 +5493,7 @@
       <c r="D28" s="21"/>
       <c r="E28" s="20">
         <f t="shared" si="0"/>
-        <v>745203.5</v>
+        <v>1059910</v>
       </c>
       <c r="F28" s="97"/>
       <c r="G28" s="180">
@@ -5483,7 +5507,7 @@
       </c>
       <c r="J28" s="20">
         <f t="shared" si="1"/>
-        <v>-1243449.02</v>
+        <v>-928742.52</v>
       </c>
     </row>
     <row r="29" spans="2:10" ht="23.25" x14ac:dyDescent="0.25">
@@ -5492,14 +5516,14 @@
       <c r="D29" s="21"/>
       <c r="E29" s="20">
         <f t="shared" si="0"/>
-        <v>745203.5</v>
+        <v>1059910</v>
       </c>
       <c r="G29" s="99"/>
       <c r="H29" s="99"/>
       <c r="I29" s="99"/>
       <c r="J29" s="20">
         <f t="shared" si="1"/>
-        <v>-1243449.02</v>
+        <v>-928742.52</v>
       </c>
     </row>
     <row r="30" spans="2:10" ht="23.25" x14ac:dyDescent="0.25">
@@ -5508,7 +5532,7 @@
       <c r="D30" s="21"/>
       <c r="E30" s="20">
         <f t="shared" si="0"/>
-        <v>745203.5</v>
+        <v>1059910</v>
       </c>
       <c r="G30" s="99"/>
       <c r="H30" s="99"/>
@@ -5521,7 +5545,7 @@
       <c r="D31" s="102"/>
       <c r="E31" s="20">
         <f t="shared" si="0"/>
-        <v>745203.5</v>
+        <v>1059910</v>
       </c>
       <c r="G31" s="99"/>
       <c r="H31" s="99"/>
@@ -5534,7 +5558,7 @@
       <c r="D32" s="103"/>
       <c r="E32" s="20">
         <f t="shared" si="0"/>
-        <v>745203.5</v>
+        <v>1059910</v>
       </c>
     </row>
     <row r="33" spans="2:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5543,7 +5567,7 @@
       <c r="D33" s="103"/>
       <c r="E33" s="20">
         <f t="shared" si="0"/>
-        <v>745203.5</v>
+        <v>1059910</v>
       </c>
       <c r="H33" s="161"/>
       <c r="I33" s="161"/>
@@ -5554,7 +5578,7 @@
       <c r="D34" s="103"/>
       <c r="E34" s="20">
         <f t="shared" si="0"/>
-        <v>745203.5</v>
+        <v>1059910</v>
       </c>
       <c r="H34" s="161"/>
       <c r="I34" s="161"/>
@@ -5565,7 +5589,7 @@
       <c r="D35" s="84"/>
       <c r="E35" s="20">
         <f t="shared" si="0"/>
-        <v>745203.5</v>
+        <v>1059910</v>
       </c>
       <c r="H35" s="161"/>
       <c r="I35" s="161"/>
@@ -5576,7 +5600,7 @@
       <c r="D36" s="84"/>
       <c r="E36" s="20">
         <f t="shared" si="0"/>
-        <v>745203.5</v>
+        <v>1059910</v>
       </c>
       <c r="H36" s="161"/>
       <c r="I36" s="161"/>
@@ -5587,7 +5611,7 @@
       <c r="D37" s="84"/>
       <c r="E37" s="20">
         <f t="shared" si="0"/>
-        <v>745203.5</v>
+        <v>1059910</v>
       </c>
       <c r="H37" s="161"/>
       <c r="I37" s="161"/>
@@ -5598,7 +5622,7 @@
       <c r="D38" s="84"/>
       <c r="E38" s="20">
         <f t="shared" si="0"/>
-        <v>745203.5</v>
+        <v>1059910</v>
       </c>
       <c r="H38" s="161"/>
       <c r="I38" s="161"/>
@@ -5609,7 +5633,7 @@
       <c r="D39" s="84"/>
       <c r="E39" s="20">
         <f t="shared" si="0"/>
-        <v>745203.5</v>
+        <v>1059910</v>
       </c>
       <c r="H39" s="161"/>
       <c r="I39" s="161"/>
@@ -5620,7 +5644,7 @@
       <c r="D40" s="84"/>
       <c r="E40" s="20">
         <f t="shared" si="0"/>
-        <v>745203.5</v>
+        <v>1059910</v>
       </c>
     </row>
     <row r="41" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -5629,7 +5653,7 @@
       <c r="D41" s="84"/>
       <c r="E41" s="20">
         <f t="shared" si="0"/>
-        <v>745203.5</v>
+        <v>1059910</v>
       </c>
     </row>
     <row r="42" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -5638,7 +5662,7 @@
       <c r="D42" s="84"/>
       <c r="E42" s="20">
         <f t="shared" si="0"/>
-        <v>745203.5</v>
+        <v>1059910</v>
       </c>
     </row>
     <row r="43" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -5647,7 +5671,7 @@
       <c r="D43" s="84"/>
       <c r="E43" s="20">
         <f t="shared" si="0"/>
-        <v>745203.5</v>
+        <v>1059910</v>
       </c>
       <c r="I43" s="126"/>
       <c r="J43" s="125"/>
@@ -5658,7 +5682,7 @@
       <c r="D44" s="84"/>
       <c r="E44" s="20">
         <f t="shared" si="0"/>
-        <v>745203.5</v>
+        <v>1059910</v>
       </c>
       <c r="I44" s="126"/>
       <c r="J44" s="125"/>
@@ -5669,7 +5693,7 @@
       <c r="D45" s="84"/>
       <c r="E45" s="20">
         <f t="shared" si="0"/>
-        <v>745203.5</v>
+        <v>1059910</v>
       </c>
       <c r="I45" s="126"/>
       <c r="J45" s="125"/>
@@ -5680,7 +5704,7 @@
       <c r="D46" s="84"/>
       <c r="E46" s="20">
         <f t="shared" si="0"/>
-        <v>745203.5</v>
+        <v>1059910</v>
       </c>
       <c r="F46"/>
       <c r="I46" s="126"/>
@@ -5692,7 +5716,7 @@
       <c r="D47" s="84"/>
       <c r="E47" s="20">
         <f t="shared" si="0"/>
-        <v>745203.5</v>
+        <v>1059910</v>
       </c>
       <c r="F47"/>
       <c r="I47" s="126"/>
@@ -5839,17 +5863,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:26" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="209" t="s">
+      <c r="B2" s="215" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="209"/>
-      <c r="D2" s="209"/>
-      <c r="E2" s="209"/>
-      <c r="F2" s="209"/>
-      <c r="G2" s="209"/>
-      <c r="H2" s="209"/>
-      <c r="I2" s="209"/>
-      <c r="J2" s="209"/>
+      <c r="C2" s="215"/>
+      <c r="D2" s="215"/>
+      <c r="E2" s="215"/>
+      <c r="F2" s="215"/>
+      <c r="G2" s="215"/>
+      <c r="H2" s="215"/>
+      <c r="I2" s="215"/>
+      <c r="J2" s="215"/>
       <c r="Z2" s="105" t="s">
         <v>17</v>
       </c>
@@ -6176,10 +6200,10 @@
         <v>516161</v>
       </c>
       <c r="G17" s="82"/>
-      <c r="H17" s="210" t="s">
+      <c r="H17" s="216" t="s">
         <v>39</v>
       </c>
-      <c r="I17" s="211"/>
+      <c r="I17" s="217"/>
       <c r="J17" s="20">
         <f t="shared" si="1"/>
         <v>2029342</v>
@@ -6200,8 +6224,8 @@
         <v>552828.5</v>
       </c>
       <c r="G18" s="82"/>
-      <c r="H18" s="212"/>
-      <c r="I18" s="213"/>
+      <c r="H18" s="218"/>
+      <c r="I18" s="219"/>
       <c r="J18" s="20">
         <f t="shared" si="1"/>
         <v>2029342</v>
@@ -6222,8 +6246,8 @@
         <v>590198</v>
       </c>
       <c r="G19" s="82"/>
-      <c r="H19" s="212"/>
-      <c r="I19" s="213"/>
+      <c r="H19" s="218"/>
+      <c r="I19" s="219"/>
       <c r="J19" s="20">
         <f t="shared" si="1"/>
         <v>2029342</v>
@@ -6244,8 +6268,8 @@
         <v>630461</v>
       </c>
       <c r="G20" s="82"/>
-      <c r="H20" s="212"/>
-      <c r="I20" s="213"/>
+      <c r="H20" s="218"/>
+      <c r="I20" s="219"/>
       <c r="J20" s="20">
         <f t="shared" si="1"/>
         <v>2029342</v>
@@ -6266,8 +6290,8 @@
         <v>709244</v>
       </c>
       <c r="G21" s="82"/>
-      <c r="H21" s="212"/>
-      <c r="I21" s="213"/>
+      <c r="H21" s="218"/>
+      <c r="I21" s="219"/>
       <c r="J21" s="20">
         <f t="shared" si="1"/>
         <v>2029342</v>
@@ -6288,8 +6312,8 @@
         <v>764839.5</v>
       </c>
       <c r="G22" s="82"/>
-      <c r="H22" s="212"/>
-      <c r="I22" s="213"/>
+      <c r="H22" s="218"/>
+      <c r="I22" s="219"/>
       <c r="J22" s="20">
         <f t="shared" si="1"/>
         <v>2029342</v>
@@ -6310,8 +6334,8 @@
         <v>826492.5</v>
       </c>
       <c r="G23" s="82"/>
-      <c r="H23" s="212"/>
-      <c r="I23" s="213"/>
+      <c r="H23" s="218"/>
+      <c r="I23" s="219"/>
       <c r="J23" s="20">
         <f t="shared" si="1"/>
         <v>2029342</v>
@@ -6332,8 +6356,8 @@
         <v>830566.5</v>
       </c>
       <c r="G24" s="82"/>
-      <c r="H24" s="212"/>
-      <c r="I24" s="213"/>
+      <c r="H24" s="218"/>
+      <c r="I24" s="219"/>
       <c r="J24" s="20">
         <f t="shared" si="1"/>
         <v>2029342</v>
@@ -6354,8 +6378,8 @@
         <v>886266.5</v>
       </c>
       <c r="G25" s="82"/>
-      <c r="H25" s="212"/>
-      <c r="I25" s="213"/>
+      <c r="H25" s="218"/>
+      <c r="I25" s="219"/>
       <c r="J25" s="20">
         <f t="shared" si="1"/>
         <v>2029342</v>
@@ -6376,8 +6400,8 @@
         <v>926936.5</v>
       </c>
       <c r="G26" s="82"/>
-      <c r="H26" s="214"/>
-      <c r="I26" s="215"/>
+      <c r="H26" s="220"/>
+      <c r="I26" s="221"/>
       <c r="J26" s="20">
         <f t="shared" si="1"/>
         <v>2029342</v>
@@ -6877,25 +6901,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="201" t="s">
+      <c r="B1" s="207" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="202"/>
-      <c r="D1" s="202"/>
-      <c r="E1" s="202"/>
-      <c r="F1" s="202"/>
-      <c r="G1" s="203"/>
+      <c r="C1" s="208"/>
+      <c r="D1" s="208"/>
+      <c r="E1" s="208"/>
+      <c r="F1" s="208"/>
+      <c r="G1" s="209"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="204" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="204"/>
-      <c r="D2" s="204"/>
-      <c r="E2" s="204"/>
-      <c r="F2" s="204"/>
+      <c r="B2" s="210" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="210"/>
+      <c r="D2" s="210"/>
+      <c r="E2" s="210"/>
+      <c r="F2" s="210"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -8173,12 +8197,12 @@
       <c r="B59" s="37"/>
       <c r="C59" s="38"/>
       <c r="D59" s="39"/>
-      <c r="E59" s="205">
+      <c r="E59" s="211">
         <f>E55-G55</f>
         <v>0</v>
       </c>
-      <c r="F59" s="206"/>
-      <c r="G59" s="207"/>
+      <c r="F59" s="212"/>
+      <c r="G59" s="213"/>
       <c r="I59" s="2"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -8194,11 +8218,11 @@
       <c r="B61" s="37"/>
       <c r="C61" s="38"/>
       <c r="D61" s="39"/>
-      <c r="E61" s="208" t="s">
+      <c r="E61" s="214" t="s">
         <v>10</v>
       </c>
-      <c r="F61" s="208"/>
-      <c r="G61" s="208"/>
+      <c r="F61" s="214"/>
+      <c r="G61" s="214"/>
       <c r="I61" s="2"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -8379,25 +8403,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="201" t="s">
+      <c r="B1" s="207" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="202"/>
-      <c r="D1" s="202"/>
-      <c r="E1" s="202"/>
-      <c r="F1" s="202"/>
-      <c r="G1" s="203"/>
+      <c r="C1" s="208"/>
+      <c r="D1" s="208"/>
+      <c r="E1" s="208"/>
+      <c r="F1" s="208"/>
+      <c r="G1" s="209"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="204" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="204"/>
-      <c r="D2" s="204"/>
-      <c r="E2" s="204"/>
-      <c r="F2" s="204"/>
+      <c r="B2" s="210" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="210"/>
+      <c r="D2" s="210"/>
+      <c r="E2" s="210"/>
+      <c r="F2" s="210"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -9493,12 +9517,12 @@
       <c r="B50" s="37"/>
       <c r="C50" s="38"/>
       <c r="D50" s="39"/>
-      <c r="E50" s="205">
+      <c r="E50" s="211">
         <f>E46-G46</f>
         <v>0</v>
       </c>
-      <c r="F50" s="206"/>
-      <c r="G50" s="207"/>
+      <c r="F50" s="212"/>
+      <c r="G50" s="213"/>
       <c r="I50" s="2"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -9514,11 +9538,11 @@
       <c r="B52" s="37"/>
       <c r="C52" s="38"/>
       <c r="D52" s="39"/>
-      <c r="E52" s="208" t="s">
+      <c r="E52" s="214" t="s">
         <v>10</v>
       </c>
-      <c r="F52" s="208"/>
-      <c r="G52" s="208"/>
+      <c r="F52" s="214"/>
+      <c r="G52" s="214"/>
       <c r="I52" s="2"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -9701,17 +9725,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:26" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="209" t="s">
+      <c r="B2" s="215" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="209"/>
-      <c r="D2" s="209"/>
-      <c r="E2" s="209"/>
-      <c r="F2" s="209"/>
-      <c r="G2" s="209"/>
-      <c r="H2" s="209"/>
-      <c r="I2" s="209"/>
-      <c r="J2" s="209"/>
+      <c r="C2" s="215"/>
+      <c r="D2" s="215"/>
+      <c r="E2" s="215"/>
+      <c r="F2" s="215"/>
+      <c r="G2" s="215"/>
+      <c r="H2" s="215"/>
+      <c r="I2" s="215"/>
+      <c r="J2" s="215"/>
       <c r="Z2" s="105" t="s">
         <v>17</v>
       </c>
@@ -10350,10 +10374,10 @@
         <v>2030981</v>
       </c>
       <c r="G31" s="99"/>
-      <c r="H31" s="216" t="s">
+      <c r="H31" s="222" t="s">
         <v>39</v>
       </c>
-      <c r="I31" s="217"/>
+      <c r="I31" s="223"/>
       <c r="J31" s="161"/>
       <c r="K31" s="159"/>
       <c r="L31" s="159"/>
@@ -10377,8 +10401,8 @@
         <f t="shared" si="0"/>
         <v>2080331.5</v>
       </c>
-      <c r="H32" s="218"/>
-      <c r="I32" s="219"/>
+      <c r="H32" s="224"/>
+      <c r="I32" s="225"/>
       <c r="J32" s="160"/>
       <c r="K32" s="160"/>
       <c r="L32" s="160"/>
@@ -10402,8 +10426,8 @@
         <f t="shared" si="0"/>
         <v>2142646.5</v>
       </c>
-      <c r="H33" s="218"/>
-      <c r="I33" s="219"/>
+      <c r="H33" s="224"/>
+      <c r="I33" s="225"/>
     </row>
     <row r="34" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="82">
@@ -10419,8 +10443,8 @@
         <f t="shared" si="0"/>
         <v>2169276.5</v>
       </c>
-      <c r="H34" s="218"/>
-      <c r="I34" s="219"/>
+      <c r="H34" s="224"/>
+      <c r="I34" s="225"/>
     </row>
     <row r="35" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="82">
@@ -10436,8 +10460,8 @@
         <f t="shared" si="0"/>
         <v>2197922.5</v>
       </c>
-      <c r="H35" s="218"/>
-      <c r="I35" s="219"/>
+      <c r="H35" s="224"/>
+      <c r="I35" s="225"/>
     </row>
     <row r="36" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="82">
@@ -10453,8 +10477,8 @@
         <f t="shared" si="0"/>
         <v>2235001.5</v>
       </c>
-      <c r="H36" s="218"/>
-      <c r="I36" s="219"/>
+      <c r="H36" s="224"/>
+      <c r="I36" s="225"/>
     </row>
     <row r="37" spans="2:10" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="154" t="s">
@@ -10470,8 +10494,8 @@
         <f t="shared" si="0"/>
         <v>2407225.2999999998</v>
       </c>
-      <c r="H37" s="220"/>
-      <c r="I37" s="221"/>
+      <c r="H37" s="226"/>
+      <c r="I37" s="227"/>
     </row>
     <row r="38" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="82"/>
@@ -10703,25 +10727,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="201" t="s">
+      <c r="B1" s="207" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="202"/>
-      <c r="D1" s="202"/>
-      <c r="E1" s="202"/>
-      <c r="F1" s="202"/>
-      <c r="G1" s="203"/>
+      <c r="C1" s="208"/>
+      <c r="D1" s="208"/>
+      <c r="E1" s="208"/>
+      <c r="F1" s="208"/>
+      <c r="G1" s="209"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="163"/>
-      <c r="B2" s="204" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="204"/>
-      <c r="D2" s="204"/>
-      <c r="E2" s="204"/>
-      <c r="F2" s="204"/>
+      <c r="B2" s="210" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="210"/>
+      <c r="D2" s="210"/>
+      <c r="E2" s="210"/>
+      <c r="F2" s="210"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -11750,12 +11774,12 @@
       <c r="B47" s="37"/>
       <c r="C47" s="38"/>
       <c r="D47" s="39"/>
-      <c r="E47" s="205">
+      <c r="E47" s="211">
         <f>E43-G43</f>
         <v>10015</v>
       </c>
-      <c r="F47" s="206"/>
-      <c r="G47" s="207"/>
+      <c r="F47" s="212"/>
+      <c r="G47" s="213"/>
       <c r="I47" s="2"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -11771,11 +11795,11 @@
       <c r="B49" s="37"/>
       <c r="C49" s="38"/>
       <c r="D49" s="39"/>
-      <c r="E49" s="208" t="s">
+      <c r="E49" s="214" t="s">
         <v>10</v>
       </c>
-      <c r="F49" s="208"/>
-      <c r="G49" s="208"/>
+      <c r="F49" s="214"/>
+      <c r="G49" s="214"/>
       <c r="I49" s="2"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -11955,17 +11979,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:26" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="209" t="s">
+      <c r="B2" s="215" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="209"/>
-      <c r="D2" s="209"/>
-      <c r="E2" s="209"/>
-      <c r="F2" s="209"/>
-      <c r="G2" s="209"/>
-      <c r="H2" s="209"/>
-      <c r="I2" s="209"/>
-      <c r="J2" s="209"/>
+      <c r="C2" s="215"/>
+      <c r="D2" s="215"/>
+      <c r="E2" s="215"/>
+      <c r="F2" s="215"/>
+      <c r="G2" s="215"/>
+      <c r="H2" s="215"/>
+      <c r="I2" s="215"/>
+      <c r="J2" s="215"/>
       <c r="Z2" s="153"/>
     </row>
     <row r="3" spans="2:26" ht="33.75" thickBot="1" x14ac:dyDescent="0.4">
@@ -12635,10 +12659,10 @@
         <f t="shared" si="0"/>
         <v>1591802.5</v>
       </c>
-      <c r="H33" s="216" t="s">
+      <c r="H33" s="222" t="s">
         <v>39</v>
       </c>
-      <c r="I33" s="217"/>
+      <c r="I33" s="223"/>
     </row>
     <row r="34" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="82">
@@ -12654,8 +12678,8 @@
         <f t="shared" si="0"/>
         <v>1600707.5</v>
       </c>
-      <c r="H34" s="218"/>
-      <c r="I34" s="219"/>
+      <c r="H34" s="224"/>
+      <c r="I34" s="225"/>
     </row>
     <row r="35" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="82">
@@ -12671,8 +12695,8 @@
         <f t="shared" si="0"/>
         <v>1648425.5</v>
       </c>
-      <c r="H35" s="218"/>
-      <c r="I35" s="219"/>
+      <c r="H35" s="224"/>
+      <c r="I35" s="225"/>
     </row>
     <row r="36" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="82">
@@ -12688,8 +12712,8 @@
         <f t="shared" si="0"/>
         <v>1688855.5</v>
       </c>
-      <c r="H36" s="218"/>
-      <c r="I36" s="219"/>
+      <c r="H36" s="224"/>
+      <c r="I36" s="225"/>
     </row>
     <row r="37" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="82">
@@ -12705,8 +12729,8 @@
         <f t="shared" si="0"/>
         <v>1743049.5</v>
       </c>
-      <c r="H37" s="218"/>
-      <c r="I37" s="219"/>
+      <c r="H37" s="224"/>
+      <c r="I37" s="225"/>
     </row>
     <row r="38" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="82">
@@ -12722,8 +12746,8 @@
         <f t="shared" si="0"/>
         <v>1780606.5</v>
       </c>
-      <c r="H38" s="218"/>
-      <c r="I38" s="219"/>
+      <c r="H38" s="224"/>
+      <c r="I38" s="225"/>
     </row>
     <row r="39" spans="2:10" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="82">
@@ -12739,8 +12763,8 @@
         <f t="shared" si="0"/>
         <v>1819523.5</v>
       </c>
-      <c r="H39" s="220"/>
-      <c r="I39" s="221"/>
+      <c r="H39" s="226"/>
+      <c r="I39" s="227"/>
     </row>
     <row r="40" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="82"/>
@@ -12955,25 +12979,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="201" t="s">
+      <c r="B1" s="207" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="202"/>
-      <c r="D1" s="202"/>
-      <c r="E1" s="202"/>
-      <c r="F1" s="202"/>
-      <c r="G1" s="203"/>
+      <c r="C1" s="208"/>
+      <c r="D1" s="208"/>
+      <c r="E1" s="208"/>
+      <c r="F1" s="208"/>
+      <c r="G1" s="209"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="163"/>
-      <c r="B2" s="204" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="204"/>
-      <c r="D2" s="204"/>
-      <c r="E2" s="204"/>
-      <c r="F2" s="204"/>
+      <c r="B2" s="210" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="210"/>
+      <c r="D2" s="210"/>
+      <c r="E2" s="210"/>
+      <c r="F2" s="210"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -13896,12 +13920,12 @@
       <c r="B47" s="37"/>
       <c r="C47" s="38"/>
       <c r="D47" s="39"/>
-      <c r="E47" s="205">
+      <c r="E47" s="211">
         <f>E43-G43</f>
         <v>248942</v>
       </c>
-      <c r="F47" s="206"/>
-      <c r="G47" s="207"/>
+      <c r="F47" s="212"/>
+      <c r="G47" s="213"/>
       <c r="I47" s="2"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -13917,11 +13941,11 @@
       <c r="B49" s="37"/>
       <c r="C49" s="38"/>
       <c r="D49" s="39"/>
-      <c r="E49" s="208" t="s">
+      <c r="E49" s="214" t="s">
         <v>10</v>
       </c>
-      <c r="F49" s="208"/>
-      <c r="G49" s="208"/>
+      <c r="F49" s="214"/>
+      <c r="G49" s="214"/>
       <c r="I49" s="2"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -14101,25 +14125,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="201" t="s">
+      <c r="B1" s="207" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="202"/>
-      <c r="D1" s="202"/>
-      <c r="E1" s="202"/>
-      <c r="F1" s="202"/>
-      <c r="G1" s="203"/>
+      <c r="C1" s="208"/>
+      <c r="D1" s="208"/>
+      <c r="E1" s="208"/>
+      <c r="F1" s="208"/>
+      <c r="G1" s="209"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="163"/>
-      <c r="B2" s="204" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="204"/>
-      <c r="D2" s="204"/>
-      <c r="E2" s="204"/>
-      <c r="F2" s="204"/>
+      <c r="B2" s="210" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="210"/>
+      <c r="D2" s="210"/>
+      <c r="E2" s="210"/>
+      <c r="F2" s="210"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -14840,12 +14864,12 @@
       <c r="B38" s="37"/>
       <c r="C38" s="38"/>
       <c r="D38" s="39"/>
-      <c r="E38" s="205">
+      <c r="E38" s="211">
         <f>E34-G34</f>
         <v>182816</v>
       </c>
-      <c r="F38" s="206"/>
-      <c r="G38" s="207"/>
+      <c r="F38" s="212"/>
+      <c r="G38" s="213"/>
       <c r="I38" s="2"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -14861,11 +14885,11 @@
       <c r="B40" s="37"/>
       <c r="C40" s="38"/>
       <c r="D40" s="39"/>
-      <c r="E40" s="208" t="s">
+      <c r="E40" s="214" t="s">
         <v>10</v>
       </c>
-      <c r="F40" s="208"/>
-      <c r="G40" s="208"/>
+      <c r="F40" s="214"/>
+      <c r="G40" s="214"/>
       <c r="I40" s="2"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #07  J U L I O  2023/CREDITOS     ZAVALETA   JULIO     2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #07  J U L I O  2023/CREDITOS     ZAVALETA   JULIO     2023.xlsx
@@ -275,7 +275,7 @@
     <numFmt numFmtId="165" formatCode="[$-C0A]d\-mmm\-yy;@"/>
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="40" x14ac:knownFonts="1">
+  <fonts count="42" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -590,6 +590,22 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFCC6600"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3333FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF3333FF"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1048,7 +1064,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="228">
+  <cellXfs count="231">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1541,6 +1557,13 @@
     <xf numFmtId="164" fontId="29" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="40" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="41" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="41" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -4968,7 +4991,7 @@
   <dimension ref="A2:Z61"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5036,7 +5059,7 @@
       <c r="I4" s="88"/>
       <c r="J4" s="20">
         <f>E47+I4</f>
-        <v>1059910</v>
+        <v>1337885.5</v>
       </c>
     </row>
     <row r="5" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5058,7 +5081,7 @@
       <c r="I5" s="88"/>
       <c r="J5" s="20">
         <f>J4+I5</f>
-        <v>1059910</v>
+        <v>1337885.5</v>
       </c>
     </row>
     <row r="6" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5081,7 +5104,7 @@
       <c r="I6" s="88"/>
       <c r="J6" s="20">
         <f t="shared" ref="J6:J29" si="1">J5+I6</f>
-        <v>1059910</v>
+        <v>1337885.5</v>
       </c>
     </row>
     <row r="7" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5104,7 +5127,7 @@
       <c r="I7" s="88"/>
       <c r="J7" s="20">
         <f t="shared" si="1"/>
-        <v>1059910</v>
+        <v>1337885.5</v>
       </c>
     </row>
     <row r="8" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5126,7 +5149,7 @@
       <c r="I8" s="88"/>
       <c r="J8" s="20">
         <f t="shared" si="1"/>
-        <v>1059910</v>
+        <v>1337885.5</v>
       </c>
     </row>
     <row r="9" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5148,7 +5171,7 @@
       <c r="I9" s="84"/>
       <c r="J9" s="20">
         <f t="shared" si="1"/>
-        <v>1059910</v>
+        <v>1337885.5</v>
       </c>
     </row>
     <row r="10" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5170,7 +5193,7 @@
       <c r="I10" s="84"/>
       <c r="J10" s="20">
         <f t="shared" si="1"/>
-        <v>1059910</v>
+        <v>1337885.5</v>
       </c>
     </row>
     <row r="11" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5192,7 +5215,7 @@
       <c r="I11" s="84"/>
       <c r="J11" s="20">
         <f t="shared" si="1"/>
-        <v>1059910</v>
+        <v>1337885.5</v>
       </c>
     </row>
     <row r="12" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5214,7 +5237,7 @@
       <c r="I12" s="84"/>
       <c r="J12" s="20">
         <f t="shared" si="1"/>
-        <v>1059910</v>
+        <v>1337885.5</v>
       </c>
     </row>
     <row r="13" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5236,7 +5259,7 @@
       <c r="I13" s="84"/>
       <c r="J13" s="20">
         <f t="shared" si="1"/>
-        <v>1059910</v>
+        <v>1337885.5</v>
       </c>
     </row>
     <row r="14" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5258,7 +5281,7 @@
       <c r="I14" s="84"/>
       <c r="J14" s="20">
         <f t="shared" si="1"/>
-        <v>1059910</v>
+        <v>1337885.5</v>
       </c>
     </row>
     <row r="15" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5280,7 +5303,7 @@
       <c r="I15" s="84"/>
       <c r="J15" s="20">
         <f t="shared" si="1"/>
-        <v>1059910</v>
+        <v>1337885.5</v>
       </c>
     </row>
     <row r="16" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5302,7 +5325,7 @@
       <c r="I16" s="84"/>
       <c r="J16" s="20">
         <f t="shared" si="1"/>
-        <v>1059910</v>
+        <v>1337885.5</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5324,87 +5347,111 @@
       <c r="I17" s="84"/>
       <c r="J17" s="20">
         <f t="shared" si="1"/>
-        <v>1059910</v>
+        <v>1337885.5</v>
       </c>
     </row>
     <row r="18" spans="2:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="91"/>
-      <c r="C18" s="178"/>
-      <c r="D18" s="21"/>
+      <c r="B18" s="228">
+        <v>45134</v>
+      </c>
+      <c r="C18" s="229">
+        <v>45139</v>
+      </c>
+      <c r="D18" s="230">
+        <v>78371</v>
+      </c>
       <c r="E18" s="20">
         <f t="shared" si="0"/>
-        <v>1059910</v>
+        <v>1138281</v>
       </c>
       <c r="G18" s="82"/>
       <c r="H18" s="87"/>
       <c r="I18" s="84"/>
       <c r="J18" s="20">
         <f t="shared" si="1"/>
-        <v>1059910</v>
+        <v>1337885.5</v>
       </c>
     </row>
     <row r="19" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="91"/>
-      <c r="C19" s="178"/>
-      <c r="D19" s="21"/>
+      <c r="B19" s="228">
+        <v>45135</v>
+      </c>
+      <c r="C19" s="229">
+        <v>45139</v>
+      </c>
+      <c r="D19" s="230">
+        <v>81977</v>
+      </c>
       <c r="E19" s="20">
         <f t="shared" si="0"/>
-        <v>1059910</v>
+        <v>1220258</v>
       </c>
       <c r="G19" s="82"/>
       <c r="H19" s="87"/>
       <c r="I19" s="84"/>
       <c r="J19" s="20">
         <f t="shared" si="1"/>
-        <v>1059910</v>
+        <v>1337885.5</v>
       </c>
     </row>
     <row r="20" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="91"/>
-      <c r="C20" s="178"/>
-      <c r="D20" s="21"/>
+      <c r="B20" s="228">
+        <v>45136</v>
+      </c>
+      <c r="C20" s="229">
+        <v>45139</v>
+      </c>
+      <c r="D20" s="230">
+        <v>77401.5</v>
+      </c>
       <c r="E20" s="20">
         <f t="shared" si="0"/>
-        <v>1059910</v>
+        <v>1297659.5</v>
       </c>
       <c r="G20" s="82"/>
       <c r="H20" s="87"/>
       <c r="I20" s="88"/>
       <c r="J20" s="20">
         <f t="shared" si="1"/>
-        <v>1059910</v>
+        <v>1337885.5</v>
       </c>
     </row>
     <row r="21" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="91"/>
-      <c r="C21" s="178"/>
-      <c r="D21" s="21"/>
+      <c r="B21" s="228">
+        <v>45137</v>
+      </c>
+      <c r="C21" s="229">
+        <v>45139</v>
+      </c>
+      <c r="D21" s="230">
+        <v>40226</v>
+      </c>
       <c r="E21" s="20">
         <f t="shared" si="0"/>
-        <v>1059910</v>
+        <v>1337885.5</v>
       </c>
       <c r="G21" s="82"/>
       <c r="H21" s="87"/>
       <c r="I21" s="88"/>
       <c r="J21" s="20">
         <f t="shared" si="1"/>
-        <v>1059910</v>
+        <v>1337885.5</v>
       </c>
     </row>
     <row r="22" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="91"/>
-      <c r="C22" s="178"/>
-      <c r="D22" s="21"/>
+      <c r="B22" s="228"/>
+      <c r="C22" s="229"/>
+      <c r="D22" s="230"/>
       <c r="E22" s="20">
         <f t="shared" si="0"/>
-        <v>1059910</v>
+        <v>1337885.5</v>
       </c>
       <c r="G22" s="82"/>
       <c r="H22" s="87"/>
       <c r="I22" s="88"/>
       <c r="J22" s="20">
         <f t="shared" si="1"/>
-        <v>1059910</v>
+        <v>1337885.5</v>
       </c>
     </row>
     <row r="23" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5413,14 +5460,14 @@
       <c r="D23" s="21"/>
       <c r="E23" s="20">
         <f t="shared" si="0"/>
-        <v>1059910</v>
+        <v>1337885.5</v>
       </c>
       <c r="G23" s="82"/>
       <c r="H23" s="87"/>
       <c r="I23" s="88"/>
       <c r="J23" s="20">
         <f t="shared" si="1"/>
-        <v>1059910</v>
+        <v>1337885.5</v>
       </c>
     </row>
     <row r="24" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5429,14 +5476,14 @@
       <c r="D24" s="21"/>
       <c r="E24" s="20">
         <f t="shared" si="0"/>
-        <v>1059910</v>
+        <v>1337885.5</v>
       </c>
       <c r="G24" s="82"/>
       <c r="H24" s="87"/>
       <c r="I24" s="88"/>
       <c r="J24" s="20">
         <f t="shared" si="1"/>
-        <v>1059910</v>
+        <v>1337885.5</v>
       </c>
     </row>
     <row r="25" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5445,14 +5492,14 @@
       <c r="D25" s="21"/>
       <c r="E25" s="20">
         <f t="shared" si="0"/>
-        <v>1059910</v>
+        <v>1337885.5</v>
       </c>
       <c r="G25" s="82"/>
       <c r="H25" s="87"/>
       <c r="I25" s="93"/>
       <c r="J25" s="20">
         <f t="shared" si="1"/>
-        <v>1059910</v>
+        <v>1337885.5</v>
       </c>
     </row>
     <row r="26" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5461,14 +5508,14 @@
       <c r="D26" s="21"/>
       <c r="E26" s="20">
         <f t="shared" si="0"/>
-        <v>1059910</v>
+        <v>1337885.5</v>
       </c>
       <c r="G26" s="82"/>
       <c r="H26" s="87"/>
       <c r="I26" s="93"/>
       <c r="J26" s="20">
         <f t="shared" si="1"/>
-        <v>1059910</v>
+        <v>1337885.5</v>
       </c>
     </row>
     <row r="27" spans="2:10" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5477,14 +5524,14 @@
       <c r="D27" s="21"/>
       <c r="E27" s="20">
         <f t="shared" si="0"/>
-        <v>1059910</v>
+        <v>1337885.5</v>
       </c>
       <c r="G27" s="94"/>
       <c r="H27" s="95"/>
       <c r="I27" s="96"/>
       <c r="J27" s="20">
         <f t="shared" si="1"/>
-        <v>1059910</v>
+        <v>1337885.5</v>
       </c>
     </row>
     <row r="28" spans="2:10" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -5493,7 +5540,7 @@
       <c r="D28" s="21"/>
       <c r="E28" s="20">
         <f t="shared" si="0"/>
-        <v>1059910</v>
+        <v>1337885.5</v>
       </c>
       <c r="F28" s="97"/>
       <c r="G28" s="180">
@@ -5507,7 +5554,7 @@
       </c>
       <c r="J28" s="20">
         <f t="shared" si="1"/>
-        <v>-928742.52</v>
+        <v>-650767.02</v>
       </c>
     </row>
     <row r="29" spans="2:10" ht="23.25" x14ac:dyDescent="0.25">
@@ -5516,14 +5563,14 @@
       <c r="D29" s="21"/>
       <c r="E29" s="20">
         <f t="shared" si="0"/>
-        <v>1059910</v>
+        <v>1337885.5</v>
       </c>
       <c r="G29" s="99"/>
       <c r="H29" s="99"/>
       <c r="I29" s="99"/>
       <c r="J29" s="20">
         <f t="shared" si="1"/>
-        <v>-928742.52</v>
+        <v>-650767.02</v>
       </c>
     </row>
     <row r="30" spans="2:10" ht="23.25" x14ac:dyDescent="0.25">
@@ -5532,7 +5579,7 @@
       <c r="D30" s="21"/>
       <c r="E30" s="20">
         <f t="shared" si="0"/>
-        <v>1059910</v>
+        <v>1337885.5</v>
       </c>
       <c r="G30" s="99"/>
       <c r="H30" s="99"/>
@@ -5545,7 +5592,7 @@
       <c r="D31" s="102"/>
       <c r="E31" s="20">
         <f t="shared" si="0"/>
-        <v>1059910</v>
+        <v>1337885.5</v>
       </c>
       <c r="G31" s="99"/>
       <c r="H31" s="99"/>
@@ -5558,7 +5605,7 @@
       <c r="D32" s="103"/>
       <c r="E32" s="20">
         <f t="shared" si="0"/>
-        <v>1059910</v>
+        <v>1337885.5</v>
       </c>
     </row>
     <row r="33" spans="2:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5567,7 +5614,7 @@
       <c r="D33" s="103"/>
       <c r="E33" s="20">
         <f t="shared" si="0"/>
-        <v>1059910</v>
+        <v>1337885.5</v>
       </c>
       <c r="H33" s="161"/>
       <c r="I33" s="161"/>
@@ -5578,7 +5625,7 @@
       <c r="D34" s="103"/>
       <c r="E34" s="20">
         <f t="shared" si="0"/>
-        <v>1059910</v>
+        <v>1337885.5</v>
       </c>
       <c r="H34" s="161"/>
       <c r="I34" s="161"/>
@@ -5589,7 +5636,7 @@
       <c r="D35" s="84"/>
       <c r="E35" s="20">
         <f t="shared" si="0"/>
-        <v>1059910</v>
+        <v>1337885.5</v>
       </c>
       <c r="H35" s="161"/>
       <c r="I35" s="161"/>
@@ -5600,7 +5647,7 @@
       <c r="D36" s="84"/>
       <c r="E36" s="20">
         <f t="shared" si="0"/>
-        <v>1059910</v>
+        <v>1337885.5</v>
       </c>
       <c r="H36" s="161"/>
       <c r="I36" s="161"/>
@@ -5611,7 +5658,7 @@
       <c r="D37" s="84"/>
       <c r="E37" s="20">
         <f t="shared" si="0"/>
-        <v>1059910</v>
+        <v>1337885.5</v>
       </c>
       <c r="H37" s="161"/>
       <c r="I37" s="161"/>
@@ -5622,7 +5669,7 @@
       <c r="D38" s="84"/>
       <c r="E38" s="20">
         <f t="shared" si="0"/>
-        <v>1059910</v>
+        <v>1337885.5</v>
       </c>
       <c r="H38" s="161"/>
       <c r="I38" s="161"/>
@@ -5633,7 +5680,7 @@
       <c r="D39" s="84"/>
       <c r="E39" s="20">
         <f t="shared" si="0"/>
-        <v>1059910</v>
+        <v>1337885.5</v>
       </c>
       <c r="H39" s="161"/>
       <c r="I39" s="161"/>
@@ -5644,7 +5691,7 @@
       <c r="D40" s="84"/>
       <c r="E40" s="20">
         <f t="shared" si="0"/>
-        <v>1059910</v>
+        <v>1337885.5</v>
       </c>
     </row>
     <row r="41" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -5653,7 +5700,7 @@
       <c r="D41" s="84"/>
       <c r="E41" s="20">
         <f t="shared" si="0"/>
-        <v>1059910</v>
+        <v>1337885.5</v>
       </c>
     </row>
     <row r="42" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -5662,7 +5709,7 @@
       <c r="D42" s="84"/>
       <c r="E42" s="20">
         <f t="shared" si="0"/>
-        <v>1059910</v>
+        <v>1337885.5</v>
       </c>
     </row>
     <row r="43" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -5671,7 +5718,7 @@
       <c r="D43" s="84"/>
       <c r="E43" s="20">
         <f t="shared" si="0"/>
-        <v>1059910</v>
+        <v>1337885.5</v>
       </c>
       <c r="I43" s="126"/>
       <c r="J43" s="125"/>
@@ -5682,7 +5729,7 @@
       <c r="D44" s="84"/>
       <c r="E44" s="20">
         <f t="shared" si="0"/>
-        <v>1059910</v>
+        <v>1337885.5</v>
       </c>
       <c r="I44" s="126"/>
       <c r="J44" s="125"/>
@@ -5693,7 +5740,7 @@
       <c r="D45" s="84"/>
       <c r="E45" s="20">
         <f t="shared" si="0"/>
-        <v>1059910</v>
+        <v>1337885.5</v>
       </c>
       <c r="I45" s="126"/>
       <c r="J45" s="125"/>
@@ -5704,7 +5751,7 @@
       <c r="D46" s="84"/>
       <c r="E46" s="20">
         <f t="shared" si="0"/>
-        <v>1059910</v>
+        <v>1337885.5</v>
       </c>
       <c r="F46"/>
       <c r="I46" s="126"/>
@@ -5716,7 +5763,7 @@
       <c r="D47" s="84"/>
       <c r="E47" s="20">
         <f t="shared" si="0"/>
-        <v>1059910</v>
+        <v>1337885.5</v>
       </c>
       <c r="F47"/>
       <c r="I47" s="126"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #07  J U L I O  2023/CREDITOS     ZAVALETA   JULIO     2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #07  J U L I O  2023/CREDITOS     ZAVALETA   JULIO     2023.xlsx
@@ -1494,6 +1494,13 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="39" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="40" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="41" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="41" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1557,13 +1564,6 @@
     <xf numFmtId="164" fontId="29" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="40" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="41" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="41" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -1573,12 +1573,12 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF00FF"/>
       <color rgb="FFCC6600"/>
       <color rgb="FF00FFFF"/>
       <color rgb="FF0000FF"/>
       <color rgb="FFCCFFCC"/>
       <color rgb="FF9966FF"/>
-      <color rgb="FFFF00FF"/>
       <color rgb="FF00FF00"/>
       <color rgb="FFCC99FF"/>
       <color rgb="FF99FF99"/>
@@ -3005,25 +3005,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="207" t="s">
+      <c r="B1" s="210" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="208"/>
-      <c r="D1" s="208"/>
-      <c r="E1" s="208"/>
-      <c r="F1" s="208"/>
-      <c r="G1" s="209"/>
+      <c r="C1" s="211"/>
+      <c r="D1" s="211"/>
+      <c r="E1" s="211"/>
+      <c r="F1" s="211"/>
+      <c r="G1" s="212"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="210" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="210"/>
-      <c r="D2" s="210"/>
-      <c r="E2" s="210"/>
-      <c r="F2" s="210"/>
+      <c r="B2" s="213" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="213"/>
+      <c r="D2" s="213"/>
+      <c r="E2" s="213"/>
+      <c r="F2" s="213"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -3790,12 +3790,12 @@
       <c r="B37" s="37"/>
       <c r="C37" s="38"/>
       <c r="D37" s="39"/>
-      <c r="E37" s="211">
+      <c r="E37" s="214">
         <f>E33-G33</f>
         <v>0</v>
       </c>
-      <c r="F37" s="212"/>
-      <c r="G37" s="213"/>
+      <c r="F37" s="215"/>
+      <c r="G37" s="216"/>
       <c r="I37" s="2"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -3811,11 +3811,11 @@
       <c r="B39" s="37"/>
       <c r="C39" s="38"/>
       <c r="D39" s="39"/>
-      <c r="E39" s="214" t="s">
+      <c r="E39" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="F39" s="214"/>
-      <c r="G39" s="214"/>
+      <c r="F39" s="217"/>
+      <c r="G39" s="217"/>
       <c r="I39" s="2"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -3995,17 +3995,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:26" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="215" t="s">
+      <c r="B2" s="218" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="215"/>
-      <c r="D2" s="215"/>
-      <c r="E2" s="215"/>
-      <c r="F2" s="215"/>
-      <c r="G2" s="215"/>
-      <c r="H2" s="215"/>
-      <c r="I2" s="215"/>
-      <c r="J2" s="215"/>
+      <c r="C2" s="218"/>
+      <c r="D2" s="218"/>
+      <c r="E2" s="218"/>
+      <c r="F2" s="218"/>
+      <c r="G2" s="218"/>
+      <c r="H2" s="218"/>
+      <c r="I2" s="218"/>
+      <c r="J2" s="218"/>
       <c r="Z2" s="153"/>
     </row>
     <row r="3" spans="2:26" ht="33.75" thickBot="1" x14ac:dyDescent="0.4">
@@ -4990,8 +4990,8 @@
   </sheetPr>
   <dimension ref="A2:Z61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5008,17 +5008,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:26" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="215" t="s">
+      <c r="B2" s="218" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="215"/>
-      <c r="D2" s="215"/>
-      <c r="E2" s="215"/>
-      <c r="F2" s="215"/>
-      <c r="G2" s="215"/>
-      <c r="H2" s="215"/>
-      <c r="I2" s="215"/>
-      <c r="J2" s="215"/>
+      <c r="C2" s="218"/>
+      <c r="D2" s="218"/>
+      <c r="E2" s="218"/>
+      <c r="F2" s="218"/>
+      <c r="G2" s="218"/>
+      <c r="H2" s="218"/>
+      <c r="I2" s="218"/>
+      <c r="J2" s="218"/>
       <c r="Z2" s="153"/>
     </row>
     <row r="3" spans="2:26" ht="33.75" thickBot="1" x14ac:dyDescent="0.4">
@@ -5059,7 +5059,7 @@
       <c r="I4" s="88"/>
       <c r="J4" s="20">
         <f>E47+I4</f>
-        <v>1337885.5</v>
+        <v>1841837.5</v>
       </c>
     </row>
     <row r="5" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5081,7 +5081,7 @@
       <c r="I5" s="88"/>
       <c r="J5" s="20">
         <f>J4+I5</f>
-        <v>1337885.5</v>
+        <v>1841837.5</v>
       </c>
     </row>
     <row r="6" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5104,7 +5104,7 @@
       <c r="I6" s="88"/>
       <c r="J6" s="20">
         <f t="shared" ref="J6:J29" si="1">J5+I6</f>
-        <v>1337885.5</v>
+        <v>1841837.5</v>
       </c>
     </row>
     <row r="7" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5127,7 +5127,7 @@
       <c r="I7" s="88"/>
       <c r="J7" s="20">
         <f t="shared" si="1"/>
-        <v>1337885.5</v>
+        <v>1841837.5</v>
       </c>
     </row>
     <row r="8" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5149,7 +5149,7 @@
       <c r="I8" s="88"/>
       <c r="J8" s="20">
         <f t="shared" si="1"/>
-        <v>1337885.5</v>
+        <v>1841837.5</v>
       </c>
     </row>
     <row r="9" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5171,7 +5171,7 @@
       <c r="I9" s="84"/>
       <c r="J9" s="20">
         <f t="shared" si="1"/>
-        <v>1337885.5</v>
+        <v>1841837.5</v>
       </c>
     </row>
     <row r="10" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5193,7 +5193,7 @@
       <c r="I10" s="84"/>
       <c r="J10" s="20">
         <f t="shared" si="1"/>
-        <v>1337885.5</v>
+        <v>1841837.5</v>
       </c>
     </row>
     <row r="11" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5215,7 +5215,7 @@
       <c r="I11" s="84"/>
       <c r="J11" s="20">
         <f t="shared" si="1"/>
-        <v>1337885.5</v>
+        <v>1841837.5</v>
       </c>
     </row>
     <row r="12" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5237,7 +5237,7 @@
       <c r="I12" s="84"/>
       <c r="J12" s="20">
         <f t="shared" si="1"/>
-        <v>1337885.5</v>
+        <v>1841837.5</v>
       </c>
     </row>
     <row r="13" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5259,7 +5259,7 @@
       <c r="I13" s="84"/>
       <c r="J13" s="20">
         <f t="shared" si="1"/>
-        <v>1337885.5</v>
+        <v>1841837.5</v>
       </c>
     </row>
     <row r="14" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5281,7 +5281,7 @@
       <c r="I14" s="84"/>
       <c r="J14" s="20">
         <f t="shared" si="1"/>
-        <v>1337885.5</v>
+        <v>1841837.5</v>
       </c>
     </row>
     <row r="15" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5303,7 +5303,7 @@
       <c r="I15" s="84"/>
       <c r="J15" s="20">
         <f t="shared" si="1"/>
-        <v>1337885.5</v>
+        <v>1841837.5</v>
       </c>
     </row>
     <row r="16" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5325,7 +5325,7 @@
       <c r="I16" s="84"/>
       <c r="J16" s="20">
         <f t="shared" si="1"/>
-        <v>1337885.5</v>
+        <v>1841837.5</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5347,17 +5347,17 @@
       <c r="I17" s="84"/>
       <c r="J17" s="20">
         <f t="shared" si="1"/>
-        <v>1337885.5</v>
+        <v>1841837.5</v>
       </c>
     </row>
     <row r="18" spans="2:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="228">
+      <c r="B18" s="207">
         <v>45134</v>
       </c>
-      <c r="C18" s="229">
+      <c r="C18" s="208">
         <v>45139</v>
       </c>
-      <c r="D18" s="230">
+      <c r="D18" s="209">
         <v>78371</v>
       </c>
       <c r="E18" s="20">
@@ -5369,17 +5369,17 @@
       <c r="I18" s="84"/>
       <c r="J18" s="20">
         <f t="shared" si="1"/>
-        <v>1337885.5</v>
+        <v>1841837.5</v>
       </c>
     </row>
     <row r="19" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="228">
+      <c r="B19" s="207">
         <v>45135</v>
       </c>
-      <c r="C19" s="229">
+      <c r="C19" s="208">
         <v>45139</v>
       </c>
-      <c r="D19" s="230">
+      <c r="D19" s="209">
         <v>81977</v>
       </c>
       <c r="E19" s="20">
@@ -5391,17 +5391,17 @@
       <c r="I19" s="84"/>
       <c r="J19" s="20">
         <f t="shared" si="1"/>
-        <v>1337885.5</v>
+        <v>1841837.5</v>
       </c>
     </row>
     <row r="20" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="228">
+      <c r="B20" s="207">
         <v>45136</v>
       </c>
-      <c r="C20" s="229">
+      <c r="C20" s="208">
         <v>45139</v>
       </c>
-      <c r="D20" s="230">
+      <c r="D20" s="209">
         <v>77401.5</v>
       </c>
       <c r="E20" s="20">
@@ -5413,17 +5413,17 @@
       <c r="I20" s="88"/>
       <c r="J20" s="20">
         <f t="shared" si="1"/>
-        <v>1337885.5</v>
+        <v>1841837.5</v>
       </c>
     </row>
     <row r="21" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="228">
+      <c r="B21" s="207">
         <v>45137</v>
       </c>
-      <c r="C21" s="229">
+      <c r="C21" s="208">
         <v>45139</v>
       </c>
-      <c r="D21" s="230">
+      <c r="D21" s="209">
         <v>40226</v>
       </c>
       <c r="E21" s="20">
@@ -5435,112 +5435,154 @@
       <c r="I21" s="88"/>
       <c r="J21" s="20">
         <f t="shared" si="1"/>
-        <v>1337885.5</v>
+        <v>1841837.5</v>
       </c>
     </row>
     <row r="22" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="228"/>
-      <c r="C22" s="229"/>
-      <c r="D22" s="230"/>
+      <c r="B22" s="186">
+        <v>45145</v>
+      </c>
+      <c r="C22" s="170">
+        <v>45152</v>
+      </c>
+      <c r="D22" s="171">
+        <v>87614</v>
+      </c>
       <c r="E22" s="20">
         <f t="shared" si="0"/>
-        <v>1337885.5</v>
+        <v>1425499.5</v>
       </c>
       <c r="G22" s="82"/>
       <c r="H22" s="87"/>
       <c r="I22" s="88"/>
       <c r="J22" s="20">
         <f t="shared" si="1"/>
-        <v>1337885.5</v>
+        <v>1841837.5</v>
       </c>
     </row>
     <row r="23" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="91"/>
-      <c r="C23" s="178"/>
-      <c r="D23" s="21"/>
+      <c r="B23" s="186">
+        <v>45146</v>
+      </c>
+      <c r="C23" s="170">
+        <v>45152</v>
+      </c>
+      <c r="D23" s="171">
+        <v>79794</v>
+      </c>
       <c r="E23" s="20">
         <f t="shared" si="0"/>
-        <v>1337885.5</v>
+        <v>1505293.5</v>
       </c>
       <c r="G23" s="82"/>
       <c r="H23" s="87"/>
       <c r="I23" s="88"/>
       <c r="J23" s="20">
         <f t="shared" si="1"/>
-        <v>1337885.5</v>
+        <v>1841837.5</v>
       </c>
     </row>
     <row r="24" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="91"/>
-      <c r="C24" s="178"/>
-      <c r="D24" s="21"/>
+      <c r="B24" s="186">
+        <v>45147</v>
+      </c>
+      <c r="C24" s="170">
+        <v>45152</v>
+      </c>
+      <c r="D24" s="171">
+        <v>46373</v>
+      </c>
       <c r="E24" s="20">
         <f t="shared" si="0"/>
-        <v>1337885.5</v>
+        <v>1551666.5</v>
       </c>
       <c r="G24" s="82"/>
       <c r="H24" s="87"/>
       <c r="I24" s="88"/>
       <c r="J24" s="20">
         <f t="shared" si="1"/>
-        <v>1337885.5</v>
+        <v>1841837.5</v>
       </c>
     </row>
     <row r="25" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="91"/>
-      <c r="C25" s="178"/>
-      <c r="D25" s="21"/>
+      <c r="B25" s="186">
+        <v>45148</v>
+      </c>
+      <c r="C25" s="170">
+        <v>45152</v>
+      </c>
+      <c r="D25" s="171">
+        <v>120207</v>
+      </c>
       <c r="E25" s="20">
         <f t="shared" si="0"/>
-        <v>1337885.5</v>
+        <v>1671873.5</v>
       </c>
       <c r="G25" s="82"/>
       <c r="H25" s="87"/>
       <c r="I25" s="93"/>
       <c r="J25" s="20">
         <f t="shared" si="1"/>
-        <v>1337885.5</v>
+        <v>1841837.5</v>
       </c>
     </row>
     <row r="26" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="91"/>
-      <c r="C26" s="178"/>
-      <c r="D26" s="21"/>
+      <c r="B26" s="186">
+        <v>45149</v>
+      </c>
+      <c r="C26" s="170">
+        <v>45152</v>
+      </c>
+      <c r="D26" s="171">
+        <v>88736</v>
+      </c>
       <c r="E26" s="20">
         <f t="shared" si="0"/>
-        <v>1337885.5</v>
+        <v>1760609.5</v>
       </c>
       <c r="G26" s="82"/>
       <c r="H26" s="87"/>
       <c r="I26" s="93"/>
       <c r="J26" s="20">
         <f t="shared" si="1"/>
-        <v>1337885.5</v>
+        <v>1841837.5</v>
       </c>
     </row>
     <row r="27" spans="2:10" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="91"/>
-      <c r="C27" s="178"/>
-      <c r="D27" s="21"/>
+      <c r="B27" s="186">
+        <v>45150</v>
+      </c>
+      <c r="C27" s="170">
+        <v>45152</v>
+      </c>
+      <c r="D27" s="171">
+        <v>58832</v>
+      </c>
       <c r="E27" s="20">
         <f t="shared" si="0"/>
-        <v>1337885.5</v>
+        <v>1819441.5</v>
       </c>
       <c r="G27" s="94"/>
       <c r="H27" s="95"/>
       <c r="I27" s="96"/>
       <c r="J27" s="20">
         <f t="shared" si="1"/>
-        <v>1337885.5</v>
+        <v>1841837.5</v>
       </c>
     </row>
     <row r="28" spans="2:10" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="91"/>
-      <c r="C28" s="178"/>
-      <c r="D28" s="21"/>
+      <c r="B28" s="186">
+        <v>45151</v>
+      </c>
+      <c r="C28" s="170">
+        <v>45152</v>
+      </c>
+      <c r="D28" s="171">
+        <v>22396</v>
+      </c>
       <c r="E28" s="20">
         <f t="shared" si="0"/>
-        <v>1337885.5</v>
+        <v>1841837.5</v>
       </c>
       <c r="F28" s="97"/>
       <c r="G28" s="180">
@@ -5554,7 +5596,7 @@
       </c>
       <c r="J28" s="20">
         <f t="shared" si="1"/>
-        <v>-650767.02</v>
+        <v>-146815.02000000002</v>
       </c>
     </row>
     <row r="29" spans="2:10" ht="23.25" x14ac:dyDescent="0.25">
@@ -5563,14 +5605,14 @@
       <c r="D29" s="21"/>
       <c r="E29" s="20">
         <f t="shared" si="0"/>
-        <v>1337885.5</v>
+        <v>1841837.5</v>
       </c>
       <c r="G29" s="99"/>
       <c r="H29" s="99"/>
       <c r="I29" s="99"/>
       <c r="J29" s="20">
         <f t="shared" si="1"/>
-        <v>-650767.02</v>
+        <v>-146815.02000000002</v>
       </c>
     </row>
     <row r="30" spans="2:10" ht="23.25" x14ac:dyDescent="0.25">
@@ -5579,7 +5621,7 @@
       <c r="D30" s="21"/>
       <c r="E30" s="20">
         <f t="shared" si="0"/>
-        <v>1337885.5</v>
+        <v>1841837.5</v>
       </c>
       <c r="G30" s="99"/>
       <c r="H30" s="99"/>
@@ -5592,7 +5634,7 @@
       <c r="D31" s="102"/>
       <c r="E31" s="20">
         <f t="shared" si="0"/>
-        <v>1337885.5</v>
+        <v>1841837.5</v>
       </c>
       <c r="G31" s="99"/>
       <c r="H31" s="99"/>
@@ -5605,7 +5647,7 @@
       <c r="D32" s="103"/>
       <c r="E32" s="20">
         <f t="shared" si="0"/>
-        <v>1337885.5</v>
+        <v>1841837.5</v>
       </c>
     </row>
     <row r="33" spans="2:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5614,7 +5656,7 @@
       <c r="D33" s="103"/>
       <c r="E33" s="20">
         <f t="shared" si="0"/>
-        <v>1337885.5</v>
+        <v>1841837.5</v>
       </c>
       <c r="H33" s="161"/>
       <c r="I33" s="161"/>
@@ -5625,7 +5667,7 @@
       <c r="D34" s="103"/>
       <c r="E34" s="20">
         <f t="shared" si="0"/>
-        <v>1337885.5</v>
+        <v>1841837.5</v>
       </c>
       <c r="H34" s="161"/>
       <c r="I34" s="161"/>
@@ -5636,7 +5678,7 @@
       <c r="D35" s="84"/>
       <c r="E35" s="20">
         <f t="shared" si="0"/>
-        <v>1337885.5</v>
+        <v>1841837.5</v>
       </c>
       <c r="H35" s="161"/>
       <c r="I35" s="161"/>
@@ -5647,7 +5689,7 @@
       <c r="D36" s="84"/>
       <c r="E36" s="20">
         <f t="shared" si="0"/>
-        <v>1337885.5</v>
+        <v>1841837.5</v>
       </c>
       <c r="H36" s="161"/>
       <c r="I36" s="161"/>
@@ -5658,7 +5700,7 @@
       <c r="D37" s="84"/>
       <c r="E37" s="20">
         <f t="shared" si="0"/>
-        <v>1337885.5</v>
+        <v>1841837.5</v>
       </c>
       <c r="H37" s="161"/>
       <c r="I37" s="161"/>
@@ -5669,7 +5711,7 @@
       <c r="D38" s="84"/>
       <c r="E38" s="20">
         <f t="shared" si="0"/>
-        <v>1337885.5</v>
+        <v>1841837.5</v>
       </c>
       <c r="H38" s="161"/>
       <c r="I38" s="161"/>
@@ -5680,7 +5722,7 @@
       <c r="D39" s="84"/>
       <c r="E39" s="20">
         <f t="shared" si="0"/>
-        <v>1337885.5</v>
+        <v>1841837.5</v>
       </c>
       <c r="H39" s="161"/>
       <c r="I39" s="161"/>
@@ -5691,7 +5733,7 @@
       <c r="D40" s="84"/>
       <c r="E40" s="20">
         <f t="shared" si="0"/>
-        <v>1337885.5</v>
+        <v>1841837.5</v>
       </c>
     </row>
     <row r="41" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -5700,7 +5742,7 @@
       <c r="D41" s="84"/>
       <c r="E41" s="20">
         <f t="shared" si="0"/>
-        <v>1337885.5</v>
+        <v>1841837.5</v>
       </c>
     </row>
     <row r="42" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -5709,7 +5751,7 @@
       <c r="D42" s="84"/>
       <c r="E42" s="20">
         <f t="shared" si="0"/>
-        <v>1337885.5</v>
+        <v>1841837.5</v>
       </c>
     </row>
     <row r="43" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -5718,7 +5760,7 @@
       <c r="D43" s="84"/>
       <c r="E43" s="20">
         <f t="shared" si="0"/>
-        <v>1337885.5</v>
+        <v>1841837.5</v>
       </c>
       <c r="I43" s="126"/>
       <c r="J43" s="125"/>
@@ -5729,7 +5771,7 @@
       <c r="D44" s="84"/>
       <c r="E44" s="20">
         <f t="shared" si="0"/>
-        <v>1337885.5</v>
+        <v>1841837.5</v>
       </c>
       <c r="I44" s="126"/>
       <c r="J44" s="125"/>
@@ -5740,7 +5782,7 @@
       <c r="D45" s="84"/>
       <c r="E45" s="20">
         <f t="shared" si="0"/>
-        <v>1337885.5</v>
+        <v>1841837.5</v>
       </c>
       <c r="I45" s="126"/>
       <c r="J45" s="125"/>
@@ -5751,7 +5793,7 @@
       <c r="D46" s="84"/>
       <c r="E46" s="20">
         <f t="shared" si="0"/>
-        <v>1337885.5</v>
+        <v>1841837.5</v>
       </c>
       <c r="F46"/>
       <c r="I46" s="126"/>
@@ -5763,7 +5805,7 @@
       <c r="D47" s="84"/>
       <c r="E47" s="20">
         <f t="shared" si="0"/>
-        <v>1337885.5</v>
+        <v>1841837.5</v>
       </c>
       <c r="F47"/>
       <c r="I47" s="126"/>
@@ -5910,17 +5952,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:26" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="215" t="s">
+      <c r="B2" s="218" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="215"/>
-      <c r="D2" s="215"/>
-      <c r="E2" s="215"/>
-      <c r="F2" s="215"/>
-      <c r="G2" s="215"/>
-      <c r="H2" s="215"/>
-      <c r="I2" s="215"/>
-      <c r="J2" s="215"/>
+      <c r="C2" s="218"/>
+      <c r="D2" s="218"/>
+      <c r="E2" s="218"/>
+      <c r="F2" s="218"/>
+      <c r="G2" s="218"/>
+      <c r="H2" s="218"/>
+      <c r="I2" s="218"/>
+      <c r="J2" s="218"/>
       <c r="Z2" s="105" t="s">
         <v>17</v>
       </c>
@@ -6247,10 +6289,10 @@
         <v>516161</v>
       </c>
       <c r="G17" s="82"/>
-      <c r="H17" s="216" t="s">
+      <c r="H17" s="219" t="s">
         <v>39</v>
       </c>
-      <c r="I17" s="217"/>
+      <c r="I17" s="220"/>
       <c r="J17" s="20">
         <f t="shared" si="1"/>
         <v>2029342</v>
@@ -6271,8 +6313,8 @@
         <v>552828.5</v>
       </c>
       <c r="G18" s="82"/>
-      <c r="H18" s="218"/>
-      <c r="I18" s="219"/>
+      <c r="H18" s="221"/>
+      <c r="I18" s="222"/>
       <c r="J18" s="20">
         <f t="shared" si="1"/>
         <v>2029342</v>
@@ -6293,8 +6335,8 @@
         <v>590198</v>
       </c>
       <c r="G19" s="82"/>
-      <c r="H19" s="218"/>
-      <c r="I19" s="219"/>
+      <c r="H19" s="221"/>
+      <c r="I19" s="222"/>
       <c r="J19" s="20">
         <f t="shared" si="1"/>
         <v>2029342</v>
@@ -6315,8 +6357,8 @@
         <v>630461</v>
       </c>
       <c r="G20" s="82"/>
-      <c r="H20" s="218"/>
-      <c r="I20" s="219"/>
+      <c r="H20" s="221"/>
+      <c r="I20" s="222"/>
       <c r="J20" s="20">
         <f t="shared" si="1"/>
         <v>2029342</v>
@@ -6337,8 +6379,8 @@
         <v>709244</v>
       </c>
       <c r="G21" s="82"/>
-      <c r="H21" s="218"/>
-      <c r="I21" s="219"/>
+      <c r="H21" s="221"/>
+      <c r="I21" s="222"/>
       <c r="J21" s="20">
         <f t="shared" si="1"/>
         <v>2029342</v>
@@ -6359,8 +6401,8 @@
         <v>764839.5</v>
       </c>
       <c r="G22" s="82"/>
-      <c r="H22" s="218"/>
-      <c r="I22" s="219"/>
+      <c r="H22" s="221"/>
+      <c r="I22" s="222"/>
       <c r="J22" s="20">
         <f t="shared" si="1"/>
         <v>2029342</v>
@@ -6381,8 +6423,8 @@
         <v>826492.5</v>
       </c>
       <c r="G23" s="82"/>
-      <c r="H23" s="218"/>
-      <c r="I23" s="219"/>
+      <c r="H23" s="221"/>
+      <c r="I23" s="222"/>
       <c r="J23" s="20">
         <f t="shared" si="1"/>
         <v>2029342</v>
@@ -6403,8 +6445,8 @@
         <v>830566.5</v>
       </c>
       <c r="G24" s="82"/>
-      <c r="H24" s="218"/>
-      <c r="I24" s="219"/>
+      <c r="H24" s="221"/>
+      <c r="I24" s="222"/>
       <c r="J24" s="20">
         <f t="shared" si="1"/>
         <v>2029342</v>
@@ -6425,8 +6467,8 @@
         <v>886266.5</v>
       </c>
       <c r="G25" s="82"/>
-      <c r="H25" s="218"/>
-      <c r="I25" s="219"/>
+      <c r="H25" s="221"/>
+      <c r="I25" s="222"/>
       <c r="J25" s="20">
         <f t="shared" si="1"/>
         <v>2029342</v>
@@ -6447,8 +6489,8 @@
         <v>926936.5</v>
       </c>
       <c r="G26" s="82"/>
-      <c r="H26" s="220"/>
-      <c r="I26" s="221"/>
+      <c r="H26" s="223"/>
+      <c r="I26" s="224"/>
       <c r="J26" s="20">
         <f t="shared" si="1"/>
         <v>2029342</v>
@@ -6948,25 +6990,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="207" t="s">
+      <c r="B1" s="210" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="208"/>
-      <c r="D1" s="208"/>
-      <c r="E1" s="208"/>
-      <c r="F1" s="208"/>
-      <c r="G1" s="209"/>
+      <c r="C1" s="211"/>
+      <c r="D1" s="211"/>
+      <c r="E1" s="211"/>
+      <c r="F1" s="211"/>
+      <c r="G1" s="212"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="210" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="210"/>
-      <c r="D2" s="210"/>
-      <c r="E2" s="210"/>
-      <c r="F2" s="210"/>
+      <c r="B2" s="213" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="213"/>
+      <c r="D2" s="213"/>
+      <c r="E2" s="213"/>
+      <c r="F2" s="213"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -8244,12 +8286,12 @@
       <c r="B59" s="37"/>
       <c r="C59" s="38"/>
       <c r="D59" s="39"/>
-      <c r="E59" s="211">
+      <c r="E59" s="214">
         <f>E55-G55</f>
         <v>0</v>
       </c>
-      <c r="F59" s="212"/>
-      <c r="G59" s="213"/>
+      <c r="F59" s="215"/>
+      <c r="G59" s="216"/>
       <c r="I59" s="2"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -8265,11 +8307,11 @@
       <c r="B61" s="37"/>
       <c r="C61" s="38"/>
       <c r="D61" s="39"/>
-      <c r="E61" s="214" t="s">
+      <c r="E61" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="F61" s="214"/>
-      <c r="G61" s="214"/>
+      <c r="F61" s="217"/>
+      <c r="G61" s="217"/>
       <c r="I61" s="2"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -8450,25 +8492,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="207" t="s">
+      <c r="B1" s="210" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="208"/>
-      <c r="D1" s="208"/>
-      <c r="E1" s="208"/>
-      <c r="F1" s="208"/>
-      <c r="G1" s="209"/>
+      <c r="C1" s="211"/>
+      <c r="D1" s="211"/>
+      <c r="E1" s="211"/>
+      <c r="F1" s="211"/>
+      <c r="G1" s="212"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="210" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="210"/>
-      <c r="D2" s="210"/>
-      <c r="E2" s="210"/>
-      <c r="F2" s="210"/>
+      <c r="B2" s="213" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="213"/>
+      <c r="D2" s="213"/>
+      <c r="E2" s="213"/>
+      <c r="F2" s="213"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -9564,12 +9606,12 @@
       <c r="B50" s="37"/>
       <c r="C50" s="38"/>
       <c r="D50" s="39"/>
-      <c r="E50" s="211">
+      <c r="E50" s="214">
         <f>E46-G46</f>
         <v>0</v>
       </c>
-      <c r="F50" s="212"/>
-      <c r="G50" s="213"/>
+      <c r="F50" s="215"/>
+      <c r="G50" s="216"/>
       <c r="I50" s="2"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -9585,11 +9627,11 @@
       <c r="B52" s="37"/>
       <c r="C52" s="38"/>
       <c r="D52" s="39"/>
-      <c r="E52" s="214" t="s">
+      <c r="E52" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="F52" s="214"/>
-      <c r="G52" s="214"/>
+      <c r="F52" s="217"/>
+      <c r="G52" s="217"/>
       <c r="I52" s="2"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -9772,17 +9814,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:26" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="215" t="s">
+      <c r="B2" s="218" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="215"/>
-      <c r="D2" s="215"/>
-      <c r="E2" s="215"/>
-      <c r="F2" s="215"/>
-      <c r="G2" s="215"/>
-      <c r="H2" s="215"/>
-      <c r="I2" s="215"/>
-      <c r="J2" s="215"/>
+      <c r="C2" s="218"/>
+      <c r="D2" s="218"/>
+      <c r="E2" s="218"/>
+      <c r="F2" s="218"/>
+      <c r="G2" s="218"/>
+      <c r="H2" s="218"/>
+      <c r="I2" s="218"/>
+      <c r="J2" s="218"/>
       <c r="Z2" s="105" t="s">
         <v>17</v>
       </c>
@@ -10421,10 +10463,10 @@
         <v>2030981</v>
       </c>
       <c r="G31" s="99"/>
-      <c r="H31" s="222" t="s">
+      <c r="H31" s="225" t="s">
         <v>39</v>
       </c>
-      <c r="I31" s="223"/>
+      <c r="I31" s="226"/>
       <c r="J31" s="161"/>
       <c r="K31" s="159"/>
       <c r="L31" s="159"/>
@@ -10448,8 +10490,8 @@
         <f t="shared" si="0"/>
         <v>2080331.5</v>
       </c>
-      <c r="H32" s="224"/>
-      <c r="I32" s="225"/>
+      <c r="H32" s="227"/>
+      <c r="I32" s="228"/>
       <c r="J32" s="160"/>
       <c r="K32" s="160"/>
       <c r="L32" s="160"/>
@@ -10473,8 +10515,8 @@
         <f t="shared" si="0"/>
         <v>2142646.5</v>
       </c>
-      <c r="H33" s="224"/>
-      <c r="I33" s="225"/>
+      <c r="H33" s="227"/>
+      <c r="I33" s="228"/>
     </row>
     <row r="34" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="82">
@@ -10490,8 +10532,8 @@
         <f t="shared" si="0"/>
         <v>2169276.5</v>
       </c>
-      <c r="H34" s="224"/>
-      <c r="I34" s="225"/>
+      <c r="H34" s="227"/>
+      <c r="I34" s="228"/>
     </row>
     <row r="35" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="82">
@@ -10507,8 +10549,8 @@
         <f t="shared" si="0"/>
         <v>2197922.5</v>
       </c>
-      <c r="H35" s="224"/>
-      <c r="I35" s="225"/>
+      <c r="H35" s="227"/>
+      <c r="I35" s="228"/>
     </row>
     <row r="36" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="82">
@@ -10524,8 +10566,8 @@
         <f t="shared" si="0"/>
         <v>2235001.5</v>
       </c>
-      <c r="H36" s="224"/>
-      <c r="I36" s="225"/>
+      <c r="H36" s="227"/>
+      <c r="I36" s="228"/>
     </row>
     <row r="37" spans="2:10" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="154" t="s">
@@ -10541,8 +10583,8 @@
         <f t="shared" si="0"/>
         <v>2407225.2999999998</v>
       </c>
-      <c r="H37" s="226"/>
-      <c r="I37" s="227"/>
+      <c r="H37" s="229"/>
+      <c r="I37" s="230"/>
     </row>
     <row r="38" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="82"/>
@@ -10774,25 +10816,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="207" t="s">
+      <c r="B1" s="210" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="208"/>
-      <c r="D1" s="208"/>
-      <c r="E1" s="208"/>
-      <c r="F1" s="208"/>
-      <c r="G1" s="209"/>
+      <c r="C1" s="211"/>
+      <c r="D1" s="211"/>
+      <c r="E1" s="211"/>
+      <c r="F1" s="211"/>
+      <c r="G1" s="212"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="163"/>
-      <c r="B2" s="210" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="210"/>
-      <c r="D2" s="210"/>
-      <c r="E2" s="210"/>
-      <c r="F2" s="210"/>
+      <c r="B2" s="213" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="213"/>
+      <c r="D2" s="213"/>
+      <c r="E2" s="213"/>
+      <c r="F2" s="213"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -11821,12 +11863,12 @@
       <c r="B47" s="37"/>
       <c r="C47" s="38"/>
       <c r="D47" s="39"/>
-      <c r="E47" s="211">
+      <c r="E47" s="214">
         <f>E43-G43</f>
         <v>10015</v>
       </c>
-      <c r="F47" s="212"/>
-      <c r="G47" s="213"/>
+      <c r="F47" s="215"/>
+      <c r="G47" s="216"/>
       <c r="I47" s="2"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -11842,11 +11884,11 @@
       <c r="B49" s="37"/>
       <c r="C49" s="38"/>
       <c r="D49" s="39"/>
-      <c r="E49" s="214" t="s">
+      <c r="E49" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="F49" s="214"/>
-      <c r="G49" s="214"/>
+      <c r="F49" s="217"/>
+      <c r="G49" s="217"/>
       <c r="I49" s="2"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -12026,17 +12068,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:26" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="215" t="s">
+      <c r="B2" s="218" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="215"/>
-      <c r="D2" s="215"/>
-      <c r="E2" s="215"/>
-      <c r="F2" s="215"/>
-      <c r="G2" s="215"/>
-      <c r="H2" s="215"/>
-      <c r="I2" s="215"/>
-      <c r="J2" s="215"/>
+      <c r="C2" s="218"/>
+      <c r="D2" s="218"/>
+      <c r="E2" s="218"/>
+      <c r="F2" s="218"/>
+      <c r="G2" s="218"/>
+      <c r="H2" s="218"/>
+      <c r="I2" s="218"/>
+      <c r="J2" s="218"/>
       <c r="Z2" s="153"/>
     </row>
     <row r="3" spans="2:26" ht="33.75" thickBot="1" x14ac:dyDescent="0.4">
@@ -12706,10 +12748,10 @@
         <f t="shared" si="0"/>
         <v>1591802.5</v>
       </c>
-      <c r="H33" s="222" t="s">
+      <c r="H33" s="225" t="s">
         <v>39</v>
       </c>
-      <c r="I33" s="223"/>
+      <c r="I33" s="226"/>
     </row>
     <row r="34" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="82">
@@ -12725,8 +12767,8 @@
         <f t="shared" si="0"/>
         <v>1600707.5</v>
       </c>
-      <c r="H34" s="224"/>
-      <c r="I34" s="225"/>
+      <c r="H34" s="227"/>
+      <c r="I34" s="228"/>
     </row>
     <row r="35" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="82">
@@ -12742,8 +12784,8 @@
         <f t="shared" si="0"/>
         <v>1648425.5</v>
       </c>
-      <c r="H35" s="224"/>
-      <c r="I35" s="225"/>
+      <c r="H35" s="227"/>
+      <c r="I35" s="228"/>
     </row>
     <row r="36" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="82">
@@ -12759,8 +12801,8 @@
         <f t="shared" si="0"/>
         <v>1688855.5</v>
       </c>
-      <c r="H36" s="224"/>
-      <c r="I36" s="225"/>
+      <c r="H36" s="227"/>
+      <c r="I36" s="228"/>
     </row>
     <row r="37" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="82">
@@ -12776,8 +12818,8 @@
         <f t="shared" si="0"/>
         <v>1743049.5</v>
       </c>
-      <c r="H37" s="224"/>
-      <c r="I37" s="225"/>
+      <c r="H37" s="227"/>
+      <c r="I37" s="228"/>
     </row>
     <row r="38" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="82">
@@ -12793,8 +12835,8 @@
         <f t="shared" si="0"/>
         <v>1780606.5</v>
       </c>
-      <c r="H38" s="224"/>
-      <c r="I38" s="225"/>
+      <c r="H38" s="227"/>
+      <c r="I38" s="228"/>
     </row>
     <row r="39" spans="2:10" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="82">
@@ -12810,8 +12852,8 @@
         <f t="shared" si="0"/>
         <v>1819523.5</v>
       </c>
-      <c r="H39" s="226"/>
-      <c r="I39" s="227"/>
+      <c r="H39" s="229"/>
+      <c r="I39" s="230"/>
     </row>
     <row r="40" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="82"/>
@@ -13026,25 +13068,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="207" t="s">
+      <c r="B1" s="210" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="208"/>
-      <c r="D1" s="208"/>
-      <c r="E1" s="208"/>
-      <c r="F1" s="208"/>
-      <c r="G1" s="209"/>
+      <c r="C1" s="211"/>
+      <c r="D1" s="211"/>
+      <c r="E1" s="211"/>
+      <c r="F1" s="211"/>
+      <c r="G1" s="212"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="163"/>
-      <c r="B2" s="210" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="210"/>
-      <c r="D2" s="210"/>
-      <c r="E2" s="210"/>
-      <c r="F2" s="210"/>
+      <c r="B2" s="213" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="213"/>
+      <c r="D2" s="213"/>
+      <c r="E2" s="213"/>
+      <c r="F2" s="213"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -13967,12 +14009,12 @@
       <c r="B47" s="37"/>
       <c r="C47" s="38"/>
       <c r="D47" s="39"/>
-      <c r="E47" s="211">
+      <c r="E47" s="214">
         <f>E43-G43</f>
         <v>248942</v>
       </c>
-      <c r="F47" s="212"/>
-      <c r="G47" s="213"/>
+      <c r="F47" s="215"/>
+      <c r="G47" s="216"/>
       <c r="I47" s="2"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -13988,11 +14030,11 @@
       <c r="B49" s="37"/>
       <c r="C49" s="38"/>
       <c r="D49" s="39"/>
-      <c r="E49" s="214" t="s">
+      <c r="E49" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="F49" s="214"/>
-      <c r="G49" s="214"/>
+      <c r="F49" s="217"/>
+      <c r="G49" s="217"/>
       <c r="I49" s="2"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -14172,25 +14214,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="207" t="s">
+      <c r="B1" s="210" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="208"/>
-      <c r="D1" s="208"/>
-      <c r="E1" s="208"/>
-      <c r="F1" s="208"/>
-      <c r="G1" s="209"/>
+      <c r="C1" s="211"/>
+      <c r="D1" s="211"/>
+      <c r="E1" s="211"/>
+      <c r="F1" s="211"/>
+      <c r="G1" s="212"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="163"/>
-      <c r="B2" s="210" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="210"/>
-      <c r="D2" s="210"/>
-      <c r="E2" s="210"/>
-      <c r="F2" s="210"/>
+      <c r="B2" s="213" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="213"/>
+      <c r="D2" s="213"/>
+      <c r="E2" s="213"/>
+      <c r="F2" s="213"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -14911,12 +14953,12 @@
       <c r="B38" s="37"/>
       <c r="C38" s="38"/>
       <c r="D38" s="39"/>
-      <c r="E38" s="211">
+      <c r="E38" s="214">
         <f>E34-G34</f>
         <v>182816</v>
       </c>
-      <c r="F38" s="212"/>
-      <c r="G38" s="213"/>
+      <c r="F38" s="215"/>
+      <c r="G38" s="216"/>
       <c r="I38" s="2"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -14932,11 +14974,11 @@
       <c r="B40" s="37"/>
       <c r="C40" s="38"/>
       <c r="D40" s="39"/>
-      <c r="E40" s="214" t="s">
+      <c r="E40" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="F40" s="214"/>
-      <c r="G40" s="214"/>
+      <c r="F40" s="217"/>
+      <c r="G40" s="217"/>
       <c r="I40" s="2"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #07  J U L I O  2023/CREDITOS     ZAVALETA   JULIO     2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #07  J U L I O  2023/CREDITOS     ZAVALETA   JULIO     2023.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18075" windowHeight="11715" firstSheet="10" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18075" windowHeight="11715" firstSheet="10" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="ENERO   2 0 2 3    " sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="64">
   <si>
     <t xml:space="preserve">ABASTO 4 CARNES    Z A V A L E T A </t>
   </si>
@@ -262,7 +262,7 @@
     <t xml:space="preserve">ABASTOS  11 SUR </t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>REMISIONES    POR     CREDITOS    DE   J U L I O          2 0 2 3</t>
   </si>
 </sst>
 </file>
@@ -1573,10 +1573,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
       <color rgb="FFFF00FF"/>
       <color rgb="FFCC6600"/>
       <color rgb="FF00FFFF"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FFCCFFCC"/>
       <color rgb="FF9966FF"/>
       <color rgb="FF00FF00"/>
@@ -1760,6 +1760,223 @@
 </file>
 
 <file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>647703</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>152402</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>180974</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="1 Conector recto de flecha">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E055DA59-7FBF-4D29-B4AB-401C9645664F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="4805365" y="7491415"/>
+          <a:ext cx="581022" cy="590546"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>561977</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>123829</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>161927</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="2 Conector recto de flecha">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37A450A5-FF34-4FFA-923D-F99626F430F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="5700714" y="7539042"/>
+          <a:ext cx="638173" cy="495298"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>647703</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>152402</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>180974</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="1 Conector recto de flecha">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E055DA59-7FBF-4D29-B4AB-401C9645664F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="4805365" y="7491415"/>
+          <a:ext cx="581022" cy="590546"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>561977</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>123829</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>161927</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="2 Conector recto de flecha">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37A450A5-FF34-4FFA-923D-F99626F430F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="5700714" y="7539042"/>
+          <a:ext cx="638173" cy="495298"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4971,15 +5188,779 @@
   <sheetPr>
     <tabColor rgb="FF00FFFF"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" style="162" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="70" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="71" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" style="72" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" style="73" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="118" customWidth="1"/>
+    <col min="7" max="7" width="18" style="74" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" customWidth="1"/>
+    <col min="9" max="9" width="3.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="210" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="211"/>
+      <c r="D1" s="211"/>
+      <c r="E1" s="211"/>
+      <c r="F1" s="211"/>
+      <c r="G1" s="212"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="163"/>
+      <c r="B2" s="213" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="213"/>
+      <c r="D2" s="213"/>
+      <c r="E2" s="213"/>
+      <c r="F2" s="213"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" ht="46.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="164"/>
+      <c r="B3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="165">
+        <v>45109</v>
+      </c>
+      <c r="B4" s="15">
+        <v>812</v>
+      </c>
+      <c r="C4" s="16"/>
+      <c r="D4" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="18">
+        <v>545</v>
+      </c>
+      <c r="F4" s="119">
+        <v>45110</v>
+      </c>
+      <c r="G4" s="120">
+        <v>545</v>
+      </c>
+      <c r="H4" s="19">
+        <f t="shared" ref="H4:H33" si="0">E4-G4</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="165">
+        <v>45109</v>
+      </c>
+      <c r="B5" s="15">
+        <v>813</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" s="21">
+        <v>838</v>
+      </c>
+      <c r="F5" s="111">
+        <v>45110</v>
+      </c>
+      <c r="G5" s="21">
+        <v>838</v>
+      </c>
+      <c r="H5" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="165"/>
+      <c r="B6" s="15">
+        <v>814</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="111"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="166"/>
+      <c r="B7" s="15">
+        <v>815</v>
+      </c>
+      <c r="C7" s="16"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="111"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="165"/>
+      <c r="B8" s="15">
+        <v>816</v>
+      </c>
+      <c r="C8" s="23"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="111"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="165"/>
+      <c r="B9" s="15">
+        <v>817</v>
+      </c>
+      <c r="C9" s="26"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="111"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="165"/>
+      <c r="B10" s="15">
+        <v>818</v>
+      </c>
+      <c r="C10" s="16"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="111"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="165"/>
+      <c r="B11" s="15">
+        <v>819</v>
+      </c>
+      <c r="C11" s="16"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="111"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="165"/>
+      <c r="B12" s="15">
+        <v>820</v>
+      </c>
+      <c r="C12" s="27"/>
+      <c r="D12" s="109"/>
+      <c r="E12" s="197"/>
+      <c r="F12" s="111"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="165"/>
+      <c r="B13" s="15">
+        <v>821</v>
+      </c>
+      <c r="C13" s="28"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="111"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="165"/>
+      <c r="B14" s="15">
+        <v>822</v>
+      </c>
+      <c r="C14" s="29"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="111"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="165"/>
+      <c r="B15" s="15">
+        <v>823</v>
+      </c>
+      <c r="C15" s="30"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="111"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="165"/>
+      <c r="B16" s="15">
+        <v>824</v>
+      </c>
+      <c r="C16" s="29"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="111"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="165"/>
+      <c r="B17" s="15">
+        <v>825</v>
+      </c>
+      <c r="C17" s="28"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="111"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="165"/>
+      <c r="B18" s="15">
+        <v>826</v>
+      </c>
+      <c r="C18" s="27"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="111"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="165"/>
+      <c r="B19" s="15">
+        <v>827</v>
+      </c>
+      <c r="C19" s="28"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="111"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="165"/>
+      <c r="B20" s="15">
+        <v>828</v>
+      </c>
+      <c r="C20" s="27"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="111"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="165"/>
+      <c r="B21" s="15">
+        <v>829</v>
+      </c>
+      <c r="C21" s="27"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="111"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="165"/>
+      <c r="B22" s="15">
+        <v>830</v>
+      </c>
+      <c r="C22" s="27"/>
+      <c r="D22" s="147"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="111"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="165"/>
+      <c r="B23" s="15">
+        <v>831</v>
+      </c>
+      <c r="C23" s="27"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="111"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="165"/>
+      <c r="B24" s="15">
+        <v>832</v>
+      </c>
+      <c r="C24" s="27"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="111"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="166"/>
+      <c r="B25" s="15">
+        <v>833</v>
+      </c>
+      <c r="C25" s="27"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="111"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="166"/>
+      <c r="B26" s="15">
+        <v>834</v>
+      </c>
+      <c r="C26" s="27"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="111"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="166"/>
+      <c r="B27" s="15">
+        <v>835</v>
+      </c>
+      <c r="C27" s="27"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="111"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="166"/>
+      <c r="B28" s="15">
+        <v>836</v>
+      </c>
+      <c r="C28" s="27"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="111"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="166"/>
+      <c r="B29" s="15">
+        <v>837</v>
+      </c>
+      <c r="C29" s="27"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="111"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="166"/>
+      <c r="B30" s="15">
+        <v>838</v>
+      </c>
+      <c r="C30" s="27"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="111"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="166"/>
+      <c r="B31" s="15">
+        <v>839</v>
+      </c>
+      <c r="C31" s="27"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="111"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="166"/>
+      <c r="B32" s="15">
+        <v>840</v>
+      </c>
+      <c r="C32" s="27"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="111"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="167"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="35">
+        <v>0</v>
+      </c>
+      <c r="F33" s="112"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I33" s="2"/>
+    </row>
+    <row r="34" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="37"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="40">
+        <f>SUM(E4:E33)</f>
+        <v>1383</v>
+      </c>
+      <c r="F34" s="113"/>
+      <c r="G34" s="40">
+        <f>SUM(G4:G33)</f>
+        <v>1383</v>
+      </c>
+      <c r="H34" s="41">
+        <f>SUM(H23:H33)</f>
+        <v>0</v>
+      </c>
+      <c r="I34" s="2"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="37"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="114"/>
+      <c r="G35" s="43"/>
+      <c r="H35" s="44"/>
+      <c r="I35" s="2"/>
+    </row>
+    <row r="36" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B36" s="37"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" s="114"/>
+      <c r="G36" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="H36" s="44"/>
+      <c r="I36" s="2"/>
+    </row>
+    <row r="37" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="37"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="45"/>
+      <c r="F37" s="114"/>
+      <c r="G37" s="46"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="2"/>
+    </row>
+    <row r="38" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B38" s="37"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="214">
+        <f>E34-G34</f>
+        <v>0</v>
+      </c>
+      <c r="F38" s="215"/>
+      <c r="G38" s="216"/>
+      <c r="I38" s="2"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B39" s="37"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="114"/>
+      <c r="G39" s="43"/>
+      <c r="I39" s="2"/>
+    </row>
+    <row r="40" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B40" s="37"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="217" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" s="217"/>
+      <c r="G40" s="217"/>
+      <c r="I40" s="2"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="47"/>
+      <c r="C41" s="48"/>
+      <c r="D41" s="49"/>
+      <c r="E41" s="50"/>
+      <c r="F41" s="115"/>
+      <c r="G41" s="51"/>
+      <c r="I41" s="2"/>
+    </row>
+    <row r="42" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A42" s="168"/>
+      <c r="B42" s="53"/>
+      <c r="C42" s="54"/>
+      <c r="D42" s="55"/>
+      <c r="E42" s="56"/>
+      <c r="F42" s="57"/>
+      <c r="G42" s="56"/>
+      <c r="H42" s="58"/>
+      <c r="I42" s="2"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="169"/>
+      <c r="B43" s="60"/>
+      <c r="C43" s="61"/>
+      <c r="D43" s="62"/>
+      <c r="E43" s="63"/>
+      <c r="F43" s="116"/>
+      <c r="G43" s="64"/>
+      <c r="H43" s="58"/>
+      <c r="I43" s="2"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="169"/>
+      <c r="B44" s="60"/>
+      <c r="C44" s="61"/>
+      <c r="D44" s="62"/>
+      <c r="E44" s="63"/>
+      <c r="F44" s="116"/>
+      <c r="G44" s="64"/>
+      <c r="H44" s="58"/>
+      <c r="I44" s="2"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="169"/>
+      <c r="B45" s="60"/>
+      <c r="C45" s="61"/>
+      <c r="D45" s="62"/>
+      <c r="E45" s="63"/>
+      <c r="F45" s="116"/>
+      <c r="G45" s="64"/>
+      <c r="H45" s="58"/>
+      <c r="I45" s="2"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="169"/>
+      <c r="B46" s="60"/>
+      <c r="C46" s="61"/>
+      <c r="D46" s="62"/>
+      <c r="E46" s="63"/>
+      <c r="F46" s="116"/>
+      <c r="G46" s="64"/>
+      <c r="H46" s="58"/>
+      <c r="I46" s="2"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="169"/>
+      <c r="B47" s="60"/>
+      <c r="C47" s="61"/>
+      <c r="D47" s="62"/>
+      <c r="E47" s="63"/>
+      <c r="F47" s="116"/>
+      <c r="G47" s="64"/>
+      <c r="H47" s="58"/>
+      <c r="I47" s="2"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="169"/>
+      <c r="B48" s="60"/>
+      <c r="C48" s="61"/>
+      <c r="D48" s="62"/>
+      <c r="E48" s="63"/>
+      <c r="F48" s="116"/>
+      <c r="G48" s="64"/>
+      <c r="H48" s="58"/>
+      <c r="I48" s="2"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="169"/>
+      <c r="B49" s="60"/>
+      <c r="C49" s="61"/>
+      <c r="D49" s="62"/>
+      <c r="E49" s="63"/>
+      <c r="F49" s="116"/>
+      <c r="G49" s="64"/>
+      <c r="H49" s="58"/>
+      <c r="I49" s="2"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="169"/>
+      <c r="B50" s="60"/>
+      <c r="C50" s="61"/>
+      <c r="D50" s="62"/>
+      <c r="E50" s="63"/>
+      <c r="F50" s="116"/>
+      <c r="G50" s="64"/>
+      <c r="H50" s="58"/>
+      <c r="I50" s="2"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="169"/>
+      <c r="B51" s="60"/>
+      <c r="C51" s="61"/>
+      <c r="D51" s="62"/>
+      <c r="E51" s="63"/>
+      <c r="F51" s="116"/>
+      <c r="G51" s="64"/>
+      <c r="H51" s="58"/>
+      <c r="I51" s="2"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="169"/>
+      <c r="B52" s="60"/>
+      <c r="C52" s="61"/>
+      <c r="D52" s="62"/>
+      <c r="E52" s="63"/>
+      <c r="F52" s="116"/>
+      <c r="G52" s="64"/>
+      <c r="H52" s="58"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="169"/>
+      <c r="B53" s="65"/>
+      <c r="C53" s="66"/>
+      <c r="D53" s="67"/>
+      <c r="E53" s="68"/>
+      <c r="F53" s="117"/>
+      <c r="G53" s="69"/>
+      <c r="H53" s="58"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="E40:G40"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4990,7 +5971,7 @@
   </sheetPr>
   <dimension ref="A2:Z61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
@@ -13051,7 +14032,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G37" sqref="G37"/>
+      <selection pane="bottomLeft" activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -13877,11 +14858,15 @@
       <c r="E37" s="21">
         <v>408</v>
       </c>
-      <c r="F37" s="121"/>
-      <c r="G37" s="122"/>
+      <c r="F37" s="121">
+        <v>45110</v>
+      </c>
+      <c r="G37" s="122">
+        <v>408</v>
+      </c>
       <c r="H37" s="19">
         <f t="shared" si="0"/>
-        <v>408</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -13963,11 +14948,11 @@
       <c r="F43" s="113"/>
       <c r="G43" s="40">
         <f>SUM(G4:G42)</f>
-        <v>47738</v>
+        <v>48146</v>
       </c>
       <c r="H43" s="41">
         <f>SUM(H23:H42)</f>
-        <v>127660</v>
+        <v>127252</v>
       </c>
       <c r="I43" s="2"/>
     </row>
@@ -14011,7 +14996,7 @@
       <c r="D47" s="39"/>
       <c r="E47" s="214">
         <f>E43-G43</f>
-        <v>248942</v>
+        <v>248534</v>
       </c>
       <c r="F47" s="215"/>
       <c r="G47" s="216"/>
@@ -14196,8 +15181,8 @@
   </sheetPr>
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -14276,8 +15261,8 @@
       <c r="E4" s="18">
         <v>21213</v>
       </c>
-      <c r="F4" s="119"/>
-      <c r="G4" s="120"/>
+      <c r="F4" s="195"/>
+      <c r="G4" s="196"/>
       <c r="H4" s="19">
         <f t="shared" ref="H4:H33" si="0">E4-G4</f>
         <v>21213</v>
@@ -14298,11 +15283,15 @@
       <c r="E5" s="21">
         <v>459</v>
       </c>
-      <c r="F5" s="111"/>
-      <c r="G5" s="21"/>
+      <c r="F5" s="121">
+        <v>45110</v>
+      </c>
+      <c r="G5" s="122">
+        <v>459</v>
+      </c>
       <c r="H5" s="19">
         <f t="shared" si="0"/>
-        <v>459</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -14344,8 +15333,8 @@
       <c r="E7" s="21">
         <v>3993</v>
       </c>
-      <c r="F7" s="111"/>
-      <c r="G7" s="21"/>
+      <c r="F7" s="121"/>
+      <c r="G7" s="122"/>
       <c r="H7" s="19">
         <f t="shared" si="0"/>
         <v>3993</v>
@@ -14365,8 +15354,8 @@
       <c r="E8" s="21">
         <v>20412</v>
       </c>
-      <c r="F8" s="111"/>
-      <c r="G8" s="21"/>
+      <c r="F8" s="121"/>
+      <c r="G8" s="122"/>
       <c r="H8" s="25">
         <f t="shared" si="0"/>
         <v>20412</v>
@@ -14411,8 +15400,8 @@
       <c r="E10" s="21">
         <v>16765</v>
       </c>
-      <c r="F10" s="111"/>
-      <c r="G10" s="21"/>
+      <c r="F10" s="121"/>
+      <c r="G10" s="122"/>
       <c r="H10" s="19">
         <f t="shared" si="0"/>
         <v>16765</v>
@@ -14432,8 +15421,8 @@
       <c r="E11" s="21">
         <v>8298</v>
       </c>
-      <c r="F11" s="111"/>
-      <c r="G11" s="21"/>
+      <c r="F11" s="121"/>
+      <c r="G11" s="122"/>
       <c r="H11" s="19">
         <f t="shared" si="0"/>
         <v>8298</v>
@@ -14499,8 +15488,8 @@
       <c r="E14" s="21">
         <v>11368</v>
       </c>
-      <c r="F14" s="111"/>
-      <c r="G14" s="21"/>
+      <c r="F14" s="121"/>
+      <c r="G14" s="122"/>
       <c r="H14" s="19">
         <f t="shared" si="0"/>
         <v>11368</v>
@@ -14520,8 +15509,8 @@
       <c r="E15" s="21">
         <v>3100</v>
       </c>
-      <c r="F15" s="111"/>
-      <c r="G15" s="21"/>
+      <c r="F15" s="121"/>
+      <c r="G15" s="122"/>
       <c r="H15" s="19">
         <f t="shared" si="0"/>
         <v>3100</v>
@@ -14541,8 +15530,8 @@
       <c r="E16" s="21">
         <v>22139</v>
       </c>
-      <c r="F16" s="111"/>
-      <c r="G16" s="21"/>
+      <c r="F16" s="121"/>
+      <c r="G16" s="122"/>
       <c r="H16" s="19">
         <f t="shared" si="0"/>
         <v>22139</v>
@@ -14562,8 +15551,8 @@
       <c r="E17" s="21">
         <v>3100</v>
       </c>
-      <c r="F17" s="111"/>
-      <c r="G17" s="21"/>
+      <c r="F17" s="121"/>
+      <c r="G17" s="122"/>
       <c r="H17" s="19">
         <f t="shared" si="0"/>
         <v>3100</v>
@@ -14608,13 +15597,11 @@
       <c r="E19" s="21">
         <v>14918</v>
       </c>
-      <c r="F19" s="111"/>
-      <c r="G19" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="H19" s="19" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="F19" s="193"/>
+      <c r="G19" s="194"/>
+      <c r="H19" s="19">
+        <f t="shared" si="0"/>
+        <v>14918</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -14631,11 +15618,15 @@
       <c r="E20" s="21">
         <v>529</v>
       </c>
-      <c r="F20" s="111"/>
-      <c r="G20" s="21"/>
+      <c r="F20" s="193">
+        <v>45110</v>
+      </c>
+      <c r="G20" s="194">
+        <v>529</v>
+      </c>
       <c r="H20" s="19">
         <f t="shared" si="0"/>
-        <v>529</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -14677,8 +15668,8 @@
       <c r="E22" s="21">
         <v>14801</v>
       </c>
-      <c r="F22" s="111"/>
-      <c r="G22" s="21"/>
+      <c r="F22" s="121"/>
+      <c r="G22" s="122"/>
       <c r="H22" s="19">
         <f t="shared" si="0"/>
         <v>14801</v>
@@ -14698,11 +15689,15 @@
       <c r="E23" s="21">
         <v>281</v>
       </c>
-      <c r="F23" s="111"/>
-      <c r="G23" s="21"/>
+      <c r="F23" s="121">
+        <v>45110</v>
+      </c>
+      <c r="G23" s="122">
+        <v>281</v>
+      </c>
       <c r="H23" s="19">
         <f t="shared" si="0"/>
-        <v>281</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -14719,8 +15714,8 @@
       <c r="E24" s="21">
         <v>1403</v>
       </c>
-      <c r="F24" s="111"/>
-      <c r="G24" s="21"/>
+      <c r="F24" s="121"/>
+      <c r="G24" s="122"/>
       <c r="H24" s="19">
         <f t="shared" si="0"/>
         <v>1403</v>
@@ -14740,8 +15735,8 @@
       <c r="E25" s="21">
         <v>4664</v>
       </c>
-      <c r="F25" s="111"/>
-      <c r="G25" s="21"/>
+      <c r="F25" s="121"/>
+      <c r="G25" s="122"/>
       <c r="H25" s="19">
         <f t="shared" si="0"/>
         <v>4664</v>
@@ -14761,8 +15756,8 @@
       <c r="E26" s="21">
         <v>18395</v>
       </c>
-      <c r="F26" s="111"/>
-      <c r="G26" s="21"/>
+      <c r="F26" s="121"/>
+      <c r="G26" s="122"/>
       <c r="H26" s="19">
         <f t="shared" si="0"/>
         <v>18395</v>
@@ -14782,11 +15777,15 @@
       <c r="E27" s="21">
         <v>265</v>
       </c>
-      <c r="F27" s="111"/>
-      <c r="G27" s="21"/>
+      <c r="F27" s="121">
+        <v>45110</v>
+      </c>
+      <c r="G27" s="122">
+        <v>265</v>
+      </c>
       <c r="H27" s="19">
         <f t="shared" si="0"/>
-        <v>265</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -14803,8 +15802,8 @@
       <c r="E28" s="21">
         <v>14981</v>
       </c>
-      <c r="F28" s="111"/>
-      <c r="G28" s="21"/>
+      <c r="F28" s="121"/>
+      <c r="G28" s="122"/>
       <c r="H28" s="19">
         <f t="shared" si="0"/>
         <v>14981</v>
@@ -14824,8 +15823,8 @@
       <c r="E29" s="21">
         <v>580</v>
       </c>
-      <c r="F29" s="111"/>
-      <c r="G29" s="21"/>
+      <c r="F29" s="121"/>
+      <c r="G29" s="122"/>
       <c r="H29" s="19">
         <f t="shared" si="0"/>
         <v>580</v>
@@ -14845,18 +15844,20 @@
       <c r="E30" s="21">
         <v>1152</v>
       </c>
-      <c r="F30" s="111"/>
-      <c r="G30" s="21"/>
+      <c r="F30" s="121">
+        <v>45110</v>
+      </c>
+      <c r="G30" s="122">
+        <v>1152</v>
+      </c>
       <c r="H30" s="19">
         <f t="shared" si="0"/>
-        <v>1152</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="166"/>
-      <c r="B31" s="15">
-        <v>821</v>
-      </c>
+      <c r="B31" s="15"/>
       <c r="C31" s="27"/>
       <c r="D31" s="17"/>
       <c r="E31" s="21"/>
@@ -14907,11 +15908,11 @@
       <c r="F34" s="113"/>
       <c r="G34" s="40">
         <f>SUM(G4:G33)</f>
-        <v>5084</v>
+        <v>7770</v>
       </c>
       <c r="H34" s="41">
         <f>SUM(H23:H33)</f>
-        <v>41721</v>
+        <v>40023</v>
       </c>
       <c r="I34" s="2"/>
     </row>
@@ -14955,7 +15956,7 @@
       <c r="D38" s="39"/>
       <c r="E38" s="214">
         <f>E34-G34</f>
-        <v>182816</v>
+        <v>180130</v>
       </c>
       <c r="F38" s="215"/>
       <c r="G38" s="216"/>
@@ -15128,6 +16129,7 @@
     <mergeCell ref="E40:G40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #07  J U L I O  2023/CREDITOS     ZAVALETA   JULIO     2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #07  J U L I O  2023/CREDITOS     ZAVALETA   JULIO     2023.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="66">
   <si>
     <t xml:space="preserve">ABASTO 4 CARNES    Z A V A L E T A </t>
   </si>
@@ -263,6 +263,12 @@
   </si>
   <si>
     <t>REMISIONES    POR     CREDITOS    DE   J U L I O          2 0 2 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NORMA LEDO     Central </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -5191,7 +5197,7 @@
   <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5308,18 +5314,24 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="165"/>
+      <c r="A6" s="165">
+        <v>45111</v>
+      </c>
       <c r="B6" s="15">
         <v>814</v>
       </c>
       <c r="C6" s="16"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="21"/>
+      <c r="D6" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="21">
+        <v>20256</v>
+      </c>
       <c r="F6" s="111"/>
       <c r="G6" s="21"/>
       <c r="H6" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20256</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -5479,12 +5491,14 @@
       </c>
       <c r="C17" s="28"/>
       <c r="D17" s="24"/>
-      <c r="E17" s="21"/>
+      <c r="E17" s="21" t="s">
+        <v>65</v>
+      </c>
       <c r="F17" s="111"/>
       <c r="G17" s="21"/>
-      <c r="H17" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="H17" s="19" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -5734,7 +5748,7 @@
       <c r="D34" s="39"/>
       <c r="E34" s="40">
         <f>SUM(E4:E33)</f>
-        <v>1383</v>
+        <v>21639</v>
       </c>
       <c r="F34" s="113"/>
       <c r="G34" s="40">
@@ -5787,7 +5801,7 @@
       <c r="D38" s="39"/>
       <c r="E38" s="214">
         <f>E34-G34</f>
-        <v>0</v>
+        <v>20256</v>
       </c>
       <c r="F38" s="215"/>
       <c r="G38" s="216"/>
